--- a/israelcases.xlsx
+++ b/israelcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuohuizhang/Dropbox/IsraelCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D92F91-18E7-7E4F-953B-A88E5740588A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AD02AA-A5A6-D240-9F21-C69A20B7E18A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{BE095594-BB54-1642-928F-399C05C9B6A3}"/>
+    <workbookView xWindow="4240" yWindow="460" windowWidth="23300" windowHeight="16320" xr2:uid="{BE095594-BB54-1642-928F-399C05C9B6A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbered" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="896">
   <si>
     <t>病人序号</t>
   </si>
@@ -1643,12 +1643,6 @@
     <t>Bene Beraq</t>
   </si>
   <si>
-    <t>Classroom 101</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> of Bnei Brak Haredi College </t>
-  </si>
-  <si>
     <t>Kiryat Ono Mall</t>
   </si>
   <si>
@@ -2004,6 +1998,729 @@
   </si>
   <si>
     <t>Anabta</t>
+  </si>
+  <si>
+    <t>Imported from Spain</t>
+  </si>
+  <si>
+    <t>IB3317 to Madrid</t>
+  </si>
+  <si>
+    <t>Trip to Germany and Czech Republic</t>
+  </si>
+  <si>
+    <t>687 Lufthansa to Frankfurt</t>
+  </si>
+  <si>
+    <t>OK537 from Frankfurt to Prague Czech Republic</t>
+  </si>
+  <si>
+    <t>Israir 7762 H 6  from Prague to Israel</t>
+  </si>
+  <si>
+    <t>4XAGK to Tel Aviv</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>LX257 Tel Aviv- Zurich</t>
+  </si>
+  <si>
+    <t>LX2814 Zurich- Tenerife</t>
+  </si>
+  <si>
+    <t>256LX Zurich- Tel Aviv Tel Aviv</t>
+  </si>
+  <si>
+    <t>חזור:</t>
+  </si>
+  <si>
+    <t>LX2815 Tenerife-Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256LX Zurich- Tel Aviv </t>
+  </si>
+  <si>
+    <t>31.865582, 35.260590</t>
+  </si>
+  <si>
+    <t>Shaar Binyamin</t>
+  </si>
+  <si>
+    <t>Geva Binyamin</t>
+  </si>
+  <si>
+    <t>Rami Levi</t>
+  </si>
+  <si>
+    <t>31.824661, 35.237765</t>
+  </si>
+  <si>
+    <t>Moshe Dayan</t>
+  </si>
+  <si>
+    <t>Rum Optics on Moshe Dayan</t>
+  </si>
+  <si>
+    <t>HaShisha Asar</t>
+  </si>
+  <si>
+    <t>31.827451, 35.240787</t>
+  </si>
+  <si>
+    <t>Kashtan Deli</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>LY395 Tel Aviv- Madrid</t>
+  </si>
+  <si>
+    <t>3926i Madrid- Tenerife</t>
+  </si>
+  <si>
+    <t>i3939 Tenerife- Madrid</t>
+  </si>
+  <si>
+    <t>LY396 Madrid- Tel Aviv</t>
+  </si>
+  <si>
+    <t>Jaffa</t>
+  </si>
+  <si>
+    <t>HaYotzrim 15</t>
+  </si>
+  <si>
+    <t>32.925407, 35.312698</t>
+  </si>
+  <si>
+    <t>King store</t>
+  </si>
+  <si>
+    <t>Voting Station Yuvalim</t>
+  </si>
+  <si>
+    <t>Voting station</t>
+  </si>
+  <si>
+    <t>HaKharoshet 15</t>
+  </si>
+  <si>
+    <t>32.921474, 35.307292</t>
+  </si>
+  <si>
+    <t>Vivino Italian Restaurant</t>
+  </si>
+  <si>
+    <t>Town club</t>
+  </si>
+  <si>
+    <t>32.860156, 35.259789</t>
+  </si>
+  <si>
+    <t>Pizza Matyelet</t>
+  </si>
+  <si>
+    <t>32.858554, 35.262535</t>
+  </si>
+  <si>
+    <t>Pizza Matyelet in Rakefet</t>
+  </si>
+  <si>
+    <t>Moriah 107</t>
+  </si>
+  <si>
+    <t>32.789609, 34.986869</t>
+  </si>
+  <si>
+    <t>Misgav town club treatment room</t>
+  </si>
+  <si>
+    <t>Misgav town club sauna and jacuzzi</t>
+  </si>
+  <si>
+    <t>Misgav town club restaurant Tevel</t>
+  </si>
+  <si>
+    <t>Misgav town club pool</t>
+  </si>
+  <si>
+    <t>Sderot Nesiei Israel 100A</t>
+  </si>
+  <si>
+    <t>32.908521, 35.293434</t>
+  </si>
+  <si>
+    <t>McDonald on walking-only street</t>
+  </si>
+  <si>
+    <t>HaYarkon 71</t>
+  </si>
+  <si>
+    <t>32.076716, 34.766695</t>
+  </si>
+  <si>
+    <t>US embassy</t>
+  </si>
+  <si>
+    <t>Pri veYereq shop</t>
+  </si>
+  <si>
+    <t>Tamra</t>
+  </si>
+  <si>
+    <t>32.852233, 35.201319</t>
+  </si>
+  <si>
+    <t>Saedi St</t>
+  </si>
+  <si>
+    <t>253LX Tel Aviv- Zurich</t>
+  </si>
+  <si>
+    <t>780PC Tel Aviv- Istanbul</t>
+  </si>
+  <si>
+    <t>953PC Istanbul- Geneva</t>
+  </si>
+  <si>
+    <t>954PC Geneva- Istanbul</t>
+  </si>
+  <si>
+    <t>779PC Istanbul- Tel Aviv</t>
+  </si>
+  <si>
+    <t>Madrid UX1302 Tel Aviv-</t>
+  </si>
+  <si>
+    <t>Tel Aviv UX1301 Madrid-</t>
+  </si>
+  <si>
+    <t>LY2 NYC-Tel Aviv</t>
+  </si>
+  <si>
+    <t>Arkia 771 Grenoble</t>
+  </si>
+  <si>
+    <t>6H262 Munich-Tel Aviv</t>
+  </si>
+  <si>
+    <t>6H261 Tel Aviv- Munich drove to Austria</t>
+  </si>
+  <si>
+    <t>Hospitalized</t>
+  </si>
+  <si>
+    <t>LY347 Tel Aviv- Zurich</t>
+  </si>
+  <si>
+    <t>LY348 Zurich- Tel Aviv</t>
+  </si>
+  <si>
+    <t>Tenerife Tourist</t>
+  </si>
+  <si>
+    <t>Imported from Switzerland</t>
+  </si>
+  <si>
+    <t>US Tourist</t>
+  </si>
+  <si>
+    <t>Imported from Grenoble</t>
+  </si>
+  <si>
+    <t>Unknown source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Valley </t>
+  </si>
+  <si>
+    <t>CzechRepublic</t>
+  </si>
+  <si>
+    <t>synagogue in Convalescent Home for Parents</t>
+  </si>
+  <si>
+    <t>Amatsya 12</t>
+  </si>
+  <si>
+    <t>31.762196, 35.214171</t>
+  </si>
+  <si>
+    <t>Shaarei HaShamayim Synagogue 2nd Floor</t>
+  </si>
+  <si>
+    <t>31.755401, 35.214031</t>
+  </si>
+  <si>
+    <t>Hadar Mall Ad Osher store</t>
+  </si>
+  <si>
+    <t>Ezra Grill Restaurant</t>
+  </si>
+  <si>
+    <t>Amatsya 13</t>
+  </si>
+  <si>
+    <t>31.762196, 35.214172</t>
+  </si>
+  <si>
+    <t>Amatsya 14</t>
+  </si>
+  <si>
+    <t>31.762196, 35.214173</t>
+  </si>
+  <si>
+    <t>Amatsya 15</t>
+  </si>
+  <si>
+    <t>31.762196, 35.214174</t>
+  </si>
+  <si>
+    <t>Shufersal Supermarket</t>
+  </si>
+  <si>
+    <t>Emek Refaim 44</t>
+  </si>
+  <si>
+    <t>31.762783, 35.218302</t>
+  </si>
+  <si>
+    <t>Le Moulin Dore French pastry</t>
+  </si>
+  <si>
+    <t>Mekor Haim 42</t>
+  </si>
+  <si>
+    <t>32.052848, 34.778026</t>
+  </si>
+  <si>
+    <t>Synagogue prayer</t>
+  </si>
+  <si>
+    <t>D85671 Tel Aviv- Barcelona</t>
+  </si>
+  <si>
+    <t>D85670 Barcelona- Tel Aviv</t>
+  </si>
+  <si>
+    <t>29.2: 9:30 מתל אביב לזלצבורג בחברת סאן-דור מספר טיסה 5815GH</t>
+  </si>
+  <si>
+    <t>7.3: 13:40מזלצבורג לתל אביב בחברת סאן-דור מספר טיסה 5816GH, נחיתה בנתב"ג ב18:05.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tel Aviv to Saltzburg 5815GH </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saltzburg to Tel Aviv5816GH -</t>
+  </si>
+  <si>
+    <t>ב-1.3 ממדריד לתל אביב, מספרה UX1303 של חברת אייר אירופה. המראה ממדריד בשעה 23:45, נחיתה בנתב"ג 2.3 בשעה 05:35.</t>
+  </si>
+  <si>
+    <t>Ariel Tel Aviv</t>
+  </si>
+  <si>
+    <t>* ב-2.3 ביקרה בבר "בית אריאלה", ברחוב הרכבת 2 בתל אביב, בין השעות 18.00-21.00.</t>
+  </si>
+  <si>
+    <t>* ב-3.3 ביקרה בבית קפה בשם "מיכאלאנג'ו", ברחוב בן תרדון 2 ביפו, בין השעות 10.30 - 12.30.</t>
+  </si>
+  <si>
+    <t>HaRakevet 2</t>
+  </si>
+  <si>
+    <t>32.059092, 34.784271</t>
+  </si>
+  <si>
+    <t>Beit Arielle Bar</t>
+  </si>
+  <si>
+    <t>Ben Teradion 2</t>
+  </si>
+  <si>
+    <t>32.052317, 34.758653</t>
+  </si>
+  <si>
+    <t>Michelongelo bar</t>
+  </si>
+  <si>
+    <t>OS860 Tel Aviv Tel Aviv- Vienna</t>
+  </si>
+  <si>
+    <t>*ב-29.2 מתל אביב לוינה, מספרה OS860 של חברת אוסטריאן. המראה מנתב"ג בשעה 06:15.</t>
+  </si>
+  <si>
+    <t>Innsbruck OS911 Vienna-</t>
+  </si>
+  <si>
+    <t>*טיסת המשך מוינה לאינסברוק שבאוסטריה בחברת אוסטריאן, מספרה OS911. המראה מוינה ב-10:05.</t>
+  </si>
+  <si>
+    <t>OS904 Innsbruck- Vienna</t>
+  </si>
+  <si>
+    <t>*ב- 7.3 מאינסברוק לוינה בחברת אוסטריאן, מספרה OS904. המראה ב-11:20.</t>
+  </si>
+  <si>
+    <t>*טיסת המשך לישראל ב7.3, באוסטריאן, מספרה OS861. שעת המראה 13:05, נחיתה בנתב"ג ב-17:35.</t>
+  </si>
+  <si>
+    <t>UX1302 Tel Aviv-Madrid</t>
+  </si>
+  <si>
+    <t>UX1303 Madrid-Tel Aviv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OS861 Vienna-Tel Aviv</t>
+  </si>
+  <si>
+    <t>28.2: טיסה VS454 חברת Virgin atlantic מת"א להיתרו לונדון, המריאה ב 07:00</t>
+  </si>
+  <si>
+    <t>3.3: טיסה חברת Virgin atlantic מהיתרו לאדינבורו, המריאה בשעה 08:45.</t>
+  </si>
+  <si>
+    <t>7.3: טיסה BA2507 חברת בריטיש איירוייז מאדינבורו לגטוויק לונדון בשעה 07:05.</t>
+  </si>
+  <si>
+    <t>מגטוויק נסיעה באוטובוס להיתרו בשעה 09:00.</t>
+  </si>
+  <si>
+    <t>7.3: טיסה VS453 חברת Virgin atlantic מהיתרו לונדון לת"א בשעה 14:50</t>
+  </si>
+  <si>
+    <t>7.3: בשעה 22:18 נסעה ברכבת מנתב"ג לתחנת תל אביב ההגנה.</t>
+  </si>
+  <si>
+    <t>בשעה 22:37 נסעה ברכבת מתל אביב ההגנה לבאר שבע.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VS454 Tel Aviv - London</t>
+  </si>
+  <si>
+    <t>Virgin Atlantic London - Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BA2507 Edinburgh to Gatwick London</t>
+  </si>
+  <si>
+    <t>Gatwick to Heathrow Bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VS453 Heathrow to Tel Aviv</t>
+  </si>
+  <si>
+    <t>32.054403, 34.784800</t>
+  </si>
+  <si>
+    <t>Tel Aviv Hahagana</t>
+  </si>
+  <si>
+    <t>31.242884, 34.798544</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>LY319 Tel Aviv- Paris</t>
+  </si>
+  <si>
+    <t>27.2 : טיסה מתל אביב לפריז צרפת (שדה התעופה שארל דה גול), בטיסה מספר LY319 של חברת אל על בשעה 05:50 .</t>
+  </si>
+  <si>
+    <t>LY326 Paris- Tel Aviv Tel Aviv</t>
+  </si>
+  <si>
+    <t>1.3: טיסה מפריז לתל אביב, טיסה מס' LY326 של חברת אל על בשעה 22:30 , נחיתה בנתב"ג ב- 2.3 בשעה 03:50.</t>
+  </si>
+  <si>
+    <t>Maale Adumim</t>
+  </si>
+  <si>
+    <t>*2.3: 17:00-18:00 קלפי מס' 9 בבית הספר התורני "רמות" רחוב הקרן 10, מעלה אדומים.</t>
+  </si>
+  <si>
+    <t>*3.3 : 12:00 \[Dash] בית מרקחת סופרפארם בקניון מעלה אדומים</t>
+  </si>
+  <si>
+    <t>*4.3: 12:00-13:00 שופרסל דיל קניון מעלה אדומים.</t>
+  </si>
+  <si>
+    <t>*4.3: 13:15-13:45 אייס קנה ובנה בקניון מעלה אדומים (ACE).</t>
+  </si>
+  <si>
+    <t>10 HaKeren</t>
+  </si>
+  <si>
+    <t>31.778958, 35.295942</t>
+  </si>
+  <si>
+    <t>Voting station at Ramat Torah School</t>
+  </si>
+  <si>
+    <t>Kedem 5</t>
+  </si>
+  <si>
+    <t>31.771283, 35.298255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superpharm </t>
+  </si>
+  <si>
+    <t>Ace shop</t>
+  </si>
+  <si>
+    <t>Crown plaza hotel</t>
+  </si>
+  <si>
+    <t>29.554439, 34.960925</t>
+  </si>
+  <si>
+    <t>Club Hotel Derech HaArava</t>
+  </si>
+  <si>
+    <t>29.549430, 34.952185</t>
+  </si>
+  <si>
+    <t>Club Hotel Derech HaArava conference dinner and performance</t>
+  </si>
+  <si>
+    <t>32.046620, 34.843105</t>
+  </si>
+  <si>
+    <t>Medical Survey Institute</t>
+  </si>
+  <si>
+    <t>Sheba Medical Center</t>
+  </si>
+  <si>
+    <t>Rapaport 10</t>
+  </si>
+  <si>
+    <t>32.192412, 34.891300</t>
+  </si>
+  <si>
+    <t>Shop Mashuv (משו ב) at Kfar Saba Sarona Mall</t>
+  </si>
+  <si>
+    <t>Imported from UK</t>
+  </si>
+  <si>
+    <t>31.788405, 35.206390</t>
+  </si>
+  <si>
+    <t>Mayan 2000 Shop</t>
+  </si>
+  <si>
+    <t>*28.2: בין השעות 9:00-11:00 - סופרמארקט "אושר עד" באר שבע.</t>
+  </si>
+  <si>
+    <t>*29.2: בין השעות 18:00-21:00 - חנות "איקאה" באר שבע, לא כולל מתחם המסעדה.</t>
+  </si>
+  <si>
+    <t>*2.3: בין השעות 14:00-17:00 - במתחם ביג באר שבע - חנויות H&amp;O ותמנון.</t>
+  </si>
+  <si>
+    <t>Ofaqim</t>
+  </si>
+  <si>
+    <t>*6.3: בין השעות 11:00-11:30 - סופרמארקט ויקטורי באופקים</t>
+  </si>
+  <si>
+    <t>* 8.3: בין השעות 9:00-10:45 - קופ"ח כללית ב' אופקים מבוגרים</t>
+  </si>
+  <si>
+    <t>Sederot</t>
+  </si>
+  <si>
+    <t>*8.3 : בין השעות 20:00-00:00 חגיגות יום האישה באולם "שמיים" בשדרות.</t>
+  </si>
+  <si>
+    <t>HaKotzer 15</t>
+  </si>
+  <si>
+    <t>31.213310, 34.811000</t>
+  </si>
+  <si>
+    <t>Osher Ad shop</t>
+  </si>
+  <si>
+    <t>Hebron 21</t>
+  </si>
+  <si>
+    <t>31.242601, 34.810873</t>
+  </si>
+  <si>
+    <t>BIG H&amp;O and Tamnon(תמנון)</t>
+  </si>
+  <si>
+    <t>HaMasger</t>
+  </si>
+  <si>
+    <t>31.321033, 34.623064</t>
+  </si>
+  <si>
+    <t>Victory Supermarket</t>
+  </si>
+  <si>
+    <t>Clalit</t>
+  </si>
+  <si>
+    <t>31.318284, 34.620635</t>
+  </si>
+  <si>
+    <t>Herzl 11 or 58</t>
+  </si>
+  <si>
+    <t>ּBaalei HaMelakha 13</t>
+  </si>
+  <si>
+    <t>31.418427, 34.595206</t>
+  </si>
+  <si>
+    <t>Women's day celebration</t>
+  </si>
+  <si>
+    <t>*1.3 : בשעה 05:40 עלתה לרכבת מאופקים לבאר שבע, החלפה בב"ש בשעה 06:01 לרמלה עד 06:50. חזרה ברכבת 15:32 מרמלה לב"ש, החלפה מב"ש לאופקים ב 16:54.</t>
+  </si>
+  <si>
+    <t>*2.3 : בין השעות 14:00-17:00 \[Dash] ביקרה בחנויות בביג באר שבע H&amp;O, מנגו, מקסטוק.</t>
+  </si>
+  <si>
+    <t>*4.3 :בשעה 05:40 עלתה לרכבת מאופקים לבאר שבע, החלפה בב"ש בשעה 06:01 לרמלה עד 06:50. חזרה בשעה 12:00 מרמלה לתחנת ראשון לציון.</t>
+  </si>
+  <si>
+    <t>Rishon LeZiyyon Rishon LeZiyyon</t>
+  </si>
+  <si>
+    <t>*4.3: בשעה 14:15- אוטובוס קו 10 מראשון לציון רח' משה דיין לתחנת רכבת ראשון לציון,</t>
+  </si>
+  <si>
+    <t>Rishon LeZiyyon Ofaqim</t>
+  </si>
+  <si>
+    <t>* 4.3: בשעה 15:01- רכבת מראשון לציון לאופקים.</t>
+  </si>
+  <si>
+    <t>*5.3 : בשעה 05:40 עלתה לרכבת מאופקים לבאר שבע , החלפה בב"ש בשעה 06:01 לרמלה עד 06:50. חזרה ברכבת 15:32 מרמלה לב"ש , החלפה מב"ש לאופקים ב 16:54.</t>
+  </si>
+  <si>
+    <t>Netivot</t>
+  </si>
+  <si>
+    <t>*8.3: 20:00-20:30 חנות "מקסטוק" נתיבות.</t>
+  </si>
+  <si>
+    <t>*9.3 : בשעה 6:09 רכבת מאופקים לאשדוד, החלפת רכבת ללוד בשעה 6:57 הגעה ללוד 7:36, 15:32 רכבת מרמלה לב"ש, אוטובוס מקאנטרי ב"ש קו 330 לאופקים.</t>
+  </si>
+  <si>
+    <t>*10.3 : בין השעות 8:40-9:00- ביקור במרפאה כללית באופקים ( מישור הגפן)</t>
+  </si>
+  <si>
+    <t>Ofaqim Train Station</t>
+  </si>
+  <si>
+    <t>Ramla</t>
+  </si>
+  <si>
+    <t>Ramla Train Station</t>
+  </si>
+  <si>
+    <t>Beer Sheva Train Station</t>
+  </si>
+  <si>
+    <t>BIG H&amp;O, Mango, Max Stock</t>
+  </si>
+  <si>
+    <t>Bet Shemesh</t>
+  </si>
+  <si>
+    <t>Bet Shemesh Train Station</t>
+  </si>
+  <si>
+    <t>Rishon LeZiyyon Train Station</t>
+  </si>
+  <si>
+    <t>Bus 10</t>
+  </si>
+  <si>
+    <t>Yosef Samlo 123</t>
+  </si>
+  <si>
+    <t>31.419520, 34.600718</t>
+  </si>
+  <si>
+    <t>Hadas 10</t>
+  </si>
+  <si>
+    <t>31.310942, 34.612617</t>
+  </si>
+  <si>
+    <t>31.321749, 34.634235</t>
+  </si>
+  <si>
+    <t>31.928815, 34.877110</t>
+  </si>
+  <si>
+    <t>31.757675, 34.989109</t>
+  </si>
+  <si>
+    <t>31.987673, 34.757359</t>
+  </si>
+  <si>
+    <t>31.321729, 34.634202</t>
+  </si>
+  <si>
+    <t>Ashdod Train</t>
+  </si>
+  <si>
+    <t>31.774015, 34.666037</t>
+  </si>
+  <si>
+    <t>31.945181, 34.875110</t>
+  </si>
+  <si>
+    <t>Lod Train</t>
+  </si>
+  <si>
+    <t>Contact of 51</t>
+  </si>
+  <si>
+    <t>381LY Tel Aviv- Milan</t>
+  </si>
+  <si>
+    <t>1.3 בשעה 7:00 לתל אביב ממליאנו 2563EJU נחת ב- 11:30.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2563EJU Easy Jet Milano-Tel Aviv</t>
+  </si>
+  <si>
+    <t>LY0397 Tel Aviv- Madrid</t>
+  </si>
+  <si>
+    <t>ב-2.3 בטיסת LY0397 בשעה 17:15 מתל אביב למדריד.</t>
+  </si>
+  <si>
+    <t>ב-7.3 בשעה 15:05 ממדריד לעמאן, בשעה 22:00 מעמאן לת"א, בחברת ג'ורדאניין RJ0340.</t>
+  </si>
+  <si>
+    <t>Return from Italy</t>
+  </si>
+  <si>
+    <t>RJ0340 Madrid-Amman</t>
+  </si>
+  <si>
+    <t>Return from Spain</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classroom 101  of Bnei Brak Haredi College </t>
   </si>
 </sst>
 </file>
@@ -2011,9 +2728,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2071,6 +2788,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2092,7 +2830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2109,8 +2847,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2425,32 +3172,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C2FAD-F2D8-1A48-8BE7-ACC35E357973}">
-  <dimension ref="A1:S294"/>
+  <dimension ref="A1:T418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+    <sheetView tabSelected="1" topLeftCell="K238" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P245" sqref="P245:P246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="17" style="14" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="14" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="3.1640625" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" customWidth="1"/>
     <col min="15" max="15" width="6.83203125" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="34.6640625" customWidth="1"/>
+    <col min="16" max="16" width="34.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
     <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -9416,7 +10165,7 @@
         <v>423</v>
       </c>
       <c r="K149" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L149">
         <v>1</v>
@@ -9428,7 +10177,7 @@
         <v>423</v>
       </c>
       <c r="O149" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P149" t="s">
         <v>422</v>
@@ -9469,7 +10218,7 @@
         <v>423</v>
       </c>
       <c r="K150" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L150">
         <v>1</v>
@@ -9481,7 +10230,7 @@
         <v>423</v>
       </c>
       <c r="O150" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P150" t="s">
         <v>422</v>
@@ -9626,7 +10375,7 @@
       </c>
       <c r="J153" s="4"/>
       <c r="K153" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -9636,7 +10385,7 @@
       </c>
       <c r="N153" s="4"/>
       <c r="O153" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P153" t="s">
         <v>530</v>
@@ -9798,7 +10547,7 @@
         <v>439</v>
       </c>
       <c r="P156" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="R156" t="s">
         <v>403</v>
@@ -12086,10 +12835,10 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K209" t="s">
         <v>26</v>
@@ -12098,16 +12847,16 @@
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N209" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O209" t="s">
         <v>26</v>
       </c>
       <c r="P209" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="R209" t="s">
         <v>410</v>
@@ -12139,10 +12888,10 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K210" t="s">
         <v>26</v>
@@ -12151,16 +12900,16 @@
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N210" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O210" t="s">
         <v>26</v>
       </c>
       <c r="P210" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="R210" t="s">
         <v>410</v>
@@ -12192,10 +12941,10 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J211" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K211" t="s">
         <v>26</v>
@@ -12204,16 +12953,16 @@
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N211" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O211" t="s">
         <v>26</v>
       </c>
       <c r="P211" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="R211" t="s">
         <v>410</v>
@@ -12245,10 +12994,10 @@
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K212" t="s">
         <v>26</v>
@@ -12257,16 +13006,16 @@
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N212" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O212" t="s">
         <v>26</v>
       </c>
       <c r="P212" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="R212" t="s">
         <v>410</v>
@@ -13345,7 +14094,7 @@
         <v>525</v>
       </c>
       <c r="K236" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L236">
         <v>1</v>
@@ -13357,10 +14106,10 @@
         <v>525</v>
       </c>
       <c r="O236" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P236" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="R236" t="s">
         <v>403</v>
@@ -13468,6 +14217,9 @@
       <c r="P238" s="5" t="s">
         <v>531</v>
       </c>
+      <c r="R238" t="s">
+        <v>403</v>
+      </c>
       <c r="S238">
         <v>29</v>
       </c>
@@ -13501,7 +14253,7 @@
         <v>423</v>
       </c>
       <c r="K239" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L239">
         <v>1</v>
@@ -13513,7 +14265,7 @@
         <v>423</v>
       </c>
       <c r="O239" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P239" t="s">
         <v>422</v>
@@ -13554,7 +14306,7 @@
         <v>423</v>
       </c>
       <c r="K240" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L240">
         <v>1</v>
@@ -13566,7 +14318,7 @@
         <v>423</v>
       </c>
       <c r="O240" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P240" t="s">
         <v>422</v>
@@ -13605,7 +14357,7 @@
       </c>
       <c r="J241" s="4"/>
       <c r="K241" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L241">
         <v>1</v>
@@ -13615,7 +14367,7 @@
       </c>
       <c r="N241" s="4"/>
       <c r="O241" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P241" t="s">
         <v>530</v>
@@ -13671,10 +14423,7 @@
         <v>535</v>
       </c>
       <c r="P242" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q242" t="s">
-        <v>537</v>
+        <v>895</v>
       </c>
       <c r="R242" t="s">
         <v>403</v>
@@ -13706,31 +14455,28 @@
         <v>1</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K243" t="s">
         <v>48</v>
       </c>
-      <c r="L243" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="M243">
-        <v>1</v>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="N243" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="O243" t="s">
+        <v>48</v>
+      </c>
+      <c r="P243" t="s">
         <v>538</v>
-      </c>
-      <c r="O243" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="P243" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q243" t="s">
-        <v>540</v>
       </c>
       <c r="R243" t="s">
         <v>403</v>
@@ -13783,10 +14529,7 @@
         <v>535</v>
       </c>
       <c r="P244" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q244" t="s">
-        <v>537</v>
+        <v>895</v>
       </c>
       <c r="R244" t="s">
         <v>403</v>
@@ -13818,28 +14561,28 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
+        <v>540</v>
+      </c>
+      <c r="J245" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="K245" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245" t="s">
+        <v>540</v>
+      </c>
+      <c r="N245" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="O245" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="P245" t="s">
         <v>542</v>
-      </c>
-      <c r="J245" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="K245" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="L245">
-        <v>1</v>
-      </c>
-      <c r="M245" t="s">
-        <v>542</v>
-      </c>
-      <c r="N245" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="O245" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>544</v>
       </c>
       <c r="R245" t="s">
         <v>403</v>
@@ -13871,28 +14614,28 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="K246" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L246">
         <v>1</v>
       </c>
       <c r="M246" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N246" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O246" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q246" t="s">
-        <v>545</v>
+        <v>539</v>
+      </c>
+      <c r="P246" t="s">
+        <v>543</v>
       </c>
       <c r="R246" t="s">
         <v>403</v>
@@ -14176,13 +14919,13 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>546</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D254" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D254" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E254" s="14">
         <v>43893</v>
@@ -14197,36 +14940,36 @@
         <v>2</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K254" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L254">
         <v>2</v>
       </c>
       <c r="N254" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O254" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R254" t="s">
         <v>403</v>
       </c>
       <c r="S254" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>546</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D255" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E255" s="14">
         <v>43893</v>
@@ -14241,10 +14984,10 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K255" t="s">
         <v>280</v>
@@ -14253,10 +14996,10 @@
         <v>1</v>
       </c>
       <c r="M255" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N255" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O255" t="s">
         <v>280</v>
@@ -14265,18 +15008,18 @@
         <v>403</v>
       </c>
       <c r="S255" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>546</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D256" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E256" s="14">
         <v>43894</v>
@@ -14291,10 +15034,10 @@
         <v>1</v>
       </c>
       <c r="I256" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K256" t="s">
         <v>15</v>
@@ -14303,33 +15046,33 @@
         <v>1</v>
       </c>
       <c r="M256" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N256" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O256" t="s">
         <v>15</v>
       </c>
       <c r="P256" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="R256" t="s">
         <v>403</v>
       </c>
       <c r="S256" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>546</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D257" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D257" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E257" s="14">
         <v>43894</v>
@@ -14344,10 +15087,10 @@
         <v>1</v>
       </c>
       <c r="I257" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K257" t="s">
         <v>15</v>
@@ -14356,33 +15099,33 @@
         <v>1</v>
       </c>
       <c r="M257" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N257" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O257" t="s">
         <v>15</v>
       </c>
       <c r="P257" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="R257" t="s">
         <v>403</v>
       </c>
       <c r="S257" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>546</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D258" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D258" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E258" s="14">
         <v>43894</v>
@@ -14397,10 +15140,10 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K258" t="s">
         <v>15</v>
@@ -14409,33 +15152,33 @@
         <v>1</v>
       </c>
       <c r="M258" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N258" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="O258" t="s">
         <v>15</v>
       </c>
       <c r="P258" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="R258" t="s">
         <v>403</v>
       </c>
       <c r="S258" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>546</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D259" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E259" s="14">
         <v>43895</v>
@@ -14450,10 +15193,10 @@
         <v>1</v>
       </c>
       <c r="I259" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K259" t="s">
         <v>135</v>
@@ -14462,33 +15205,33 @@
         <v>1</v>
       </c>
       <c r="M259" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N259" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O259" t="s">
         <v>135</v>
       </c>
       <c r="P259" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="R259" t="s">
         <v>403</v>
       </c>
       <c r="S259" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>546</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D260" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D260" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E260" s="14">
         <v>43896</v>
@@ -14503,45 +15246,45 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
+        <v>568</v>
+      </c>
+      <c r="J260" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="K260" t="s">
         <v>570</v>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="K260" t="s">
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260" t="s">
+        <v>568</v>
+      </c>
+      <c r="N260" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="O260" t="s">
+        <v>570</v>
+      </c>
+      <c r="P260" t="s">
         <v>572</v>
-      </c>
-      <c r="L260">
-        <v>1</v>
-      </c>
-      <c r="M260" t="s">
-        <v>570</v>
-      </c>
-      <c r="N260" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="O260" t="s">
-        <v>572</v>
-      </c>
-      <c r="P260" t="s">
-        <v>574</v>
       </c>
       <c r="R260" t="s">
         <v>403</v>
       </c>
       <c r="S260" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>546</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D261" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D261" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E261" s="14">
         <v>43896</v>
@@ -14556,45 +15299,45 @@
         <v>1</v>
       </c>
       <c r="I261" t="s">
+        <v>573</v>
+      </c>
+      <c r="J261" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="K261" t="s">
         <v>575</v>
       </c>
-      <c r="J261" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="K261" t="s">
-        <v>577</v>
-      </c>
       <c r="L261">
         <v>1</v>
       </c>
       <c r="M261" t="s">
+        <v>573</v>
+      </c>
+      <c r="N261" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="O261" t="s">
         <v>575</v>
       </c>
-      <c r="N261" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="O261" t="s">
-        <v>577</v>
-      </c>
       <c r="P261" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="R261" t="s">
         <v>403</v>
       </c>
       <c r="S261" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>546</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D262" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D262" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="E262" s="14">
         <v>43899</v>
@@ -14606,13 +15349,13 @@
         <v>16</v>
       </c>
       <c r="O262" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R262" t="s">
         <v>403</v>
       </c>
       <c r="S262" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.2">
@@ -14620,7 +15363,7 @@
         <v>51</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>278</v>
@@ -14635,13 +15378,13 @@
         <v>16</v>
       </c>
       <c r="O263" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="R263" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="S263" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.2">
@@ -14649,7 +15392,7 @@
         <v>51</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>278</v>
@@ -14667,10 +15410,10 @@
         <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K264" t="s">
         <v>23</v>
@@ -14679,22 +15422,22 @@
         <v>1</v>
       </c>
       <c r="M264" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="N264" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O264" t="s">
         <v>23</v>
       </c>
       <c r="P264" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="R264" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="S264" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.2">
@@ -14702,7 +15445,7 @@
         <v>51</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>278</v>
@@ -14720,10 +15463,10 @@
         <v>1</v>
       </c>
       <c r="I265" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K265" t="s">
         <v>364</v>
@@ -14732,22 +15475,22 @@
         <v>1</v>
       </c>
       <c r="M265" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="N265" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O265" t="s">
         <v>364</v>
       </c>
       <c r="P265" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="R265" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="S265" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.2">
@@ -14755,7 +15498,7 @@
         <v>51</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>278</v>
@@ -14773,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="I266" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K266" t="s">
         <v>364</v>
@@ -14785,22 +15528,22 @@
         <v>1</v>
       </c>
       <c r="M266" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N266" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="O266" t="s">
         <v>364</v>
       </c>
       <c r="P266" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="R266" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="S266" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="267" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -14808,7 +15551,7 @@
         <v>52</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>15</v>
@@ -14823,10 +15566,10 @@
         <v>1</v>
       </c>
       <c r="I267" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K267" t="s">
         <v>15</v>
@@ -14835,16 +15578,16 @@
         <v>1</v>
       </c>
       <c r="M267" t="s">
+        <v>602</v>
+      </c>
+      <c r="N267" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="O267" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="N267" s="4" t="s">
+      <c r="P267" t="s">
         <v>605</v>
-      </c>
-      <c r="O267" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="P267" t="s">
-        <v>607</v>
       </c>
       <c r="R267" t="s">
         <v>403</v>
@@ -14858,7 +15601,7 @@
         <v>52</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>15</v>
@@ -14876,28 +15619,28 @@
         <v>1</v>
       </c>
       <c r="I268" t="s">
+        <v>606</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="K268" t="s">
+        <v>604</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268" t="s">
+        <v>606</v>
+      </c>
+      <c r="N268" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="O268" t="s">
+        <v>604</v>
+      </c>
+      <c r="P268" t="s">
         <v>608</v>
-      </c>
-      <c r="J268" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="K268" t="s">
-        <v>606</v>
-      </c>
-      <c r="L268">
-        <v>1</v>
-      </c>
-      <c r="M268" t="s">
-        <v>608</v>
-      </c>
-      <c r="N268" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="O268" t="s">
-        <v>606</v>
-      </c>
-      <c r="P268" t="s">
-        <v>610</v>
       </c>
       <c r="R268" t="s">
         <v>403</v>
@@ -14911,7 +15654,7 @@
         <v>52</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>15</v>
@@ -14929,28 +15672,28 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
+        <v>609</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="K269" t="s">
+        <v>604</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269" t="s">
+        <v>609</v>
+      </c>
+      <c r="N269" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="O269" t="s">
+        <v>604</v>
+      </c>
+      <c r="P269" t="s">
         <v>611</v>
-      </c>
-      <c r="J269" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="K269" t="s">
-        <v>606</v>
-      </c>
-      <c r="L269">
-        <v>1</v>
-      </c>
-      <c r="M269" t="s">
-        <v>611</v>
-      </c>
-      <c r="N269" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="O269" t="s">
-        <v>606</v>
-      </c>
-      <c r="P269" t="s">
-        <v>613</v>
       </c>
       <c r="R269" t="s">
         <v>403</v>
@@ -14964,7 +15707,7 @@
         <v>52</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>15</v>
@@ -14982,28 +15725,28 @@
         <v>1</v>
       </c>
       <c r="I270" t="s">
+        <v>606</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="K270" t="s">
+        <v>604</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270" t="s">
+        <v>606</v>
+      </c>
+      <c r="N270" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="O270" t="s">
+        <v>604</v>
+      </c>
+      <c r="P270" t="s">
         <v>608</v>
-      </c>
-      <c r="J270" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="K270" t="s">
-        <v>606</v>
-      </c>
-      <c r="L270">
-        <v>1</v>
-      </c>
-      <c r="M270" t="s">
-        <v>608</v>
-      </c>
-      <c r="N270" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="O270" t="s">
-        <v>606</v>
-      </c>
-      <c r="P270" t="s">
-        <v>610</v>
       </c>
       <c r="R270" t="s">
         <v>403</v>
@@ -15017,7 +15760,7 @@
         <v>52</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>15</v>
@@ -15035,28 +15778,28 @@
         <v>1</v>
       </c>
       <c r="I271" t="s">
+        <v>612</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="K271" t="s">
+        <v>604</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271" t="s">
+        <v>612</v>
+      </c>
+      <c r="N271" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="O271" t="s">
+        <v>604</v>
+      </c>
+      <c r="P271" t="s">
         <v>614</v>
-      </c>
-      <c r="J271" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="K271" t="s">
-        <v>606</v>
-      </c>
-      <c r="L271">
-        <v>1</v>
-      </c>
-      <c r="M271" t="s">
-        <v>614</v>
-      </c>
-      <c r="N271" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="O271" t="s">
-        <v>606</v>
-      </c>
-      <c r="P271" t="s">
-        <v>616</v>
       </c>
       <c r="R271" t="s">
         <v>403</v>
@@ -15070,7 +15813,7 @@
         <v>53</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>279</v>
@@ -15088,13 +15831,13 @@
         <v>16</v>
       </c>
       <c r="P272" t="s">
+        <v>616</v>
+      </c>
+      <c r="R272" t="s">
         <v>618</v>
       </c>
-      <c r="R272" t="s">
-        <v>620</v>
-      </c>
       <c r="S272" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.2">
@@ -15102,7 +15845,7 @@
         <v>53</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>279</v>
@@ -15120,13 +15863,13 @@
         <v>16</v>
       </c>
       <c r="P273" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="R273" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S273" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.2">
@@ -15134,7 +15877,7 @@
         <v>54</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>279</v>
@@ -15152,13 +15895,13 @@
         <v>16</v>
       </c>
       <c r="P274" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="R274" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S274" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.2">
@@ -15166,7 +15909,7 @@
         <v>54</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>279</v>
@@ -15184,13 +15927,13 @@
         <v>16</v>
       </c>
       <c r="P275" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R275" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S275" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.2">
@@ -15198,7 +15941,7 @@
         <v>55</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>279</v>
@@ -15216,13 +15959,13 @@
         <v>16</v>
       </c>
       <c r="P276" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="R276" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S276" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.2">
@@ -15230,7 +15973,7 @@
         <v>55</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>279</v>
@@ -15248,13 +15991,13 @@
         <v>16</v>
       </c>
       <c r="P277" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R277" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S277" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.2">
@@ -15262,652 +16005,688 @@
         <v>56</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E278" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F278" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G278" s="2">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278" t="s">
+        <v>736</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="K278" t="s">
+        <v>15</v>
+      </c>
+      <c r="L278">
+        <v>1</v>
+      </c>
+      <c r="M278" t="s">
+        <v>736</v>
+      </c>
+      <c r="N278" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="O278" t="s">
+        <v>15</v>
+      </c>
+      <c r="P278" t="s">
+        <v>738</v>
+      </c>
       <c r="R278" t="s">
         <v>403</v>
       </c>
-      <c r="S278" t="s">
-        <v>516</v>
+      <c r="S278">
+        <v>45</v>
       </c>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E279" s="14">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="F279" s="2">
-        <v>0.4375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G279" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="H279">
         <v>1</v>
       </c>
-      <c r="I279" s="4" t="s">
-        <v>421</v>
+      <c r="I279" t="s">
+        <v>491</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>423</v>
+        <v>739</v>
       </c>
       <c r="K279" t="s">
-        <v>656</v>
+        <v>15</v>
       </c>
       <c r="L279">
         <v>1</v>
       </c>
-      <c r="M279" s="4" t="s">
-        <v>421</v>
+      <c r="M279" t="s">
+        <v>491</v>
       </c>
       <c r="N279" s="4" t="s">
-        <v>423</v>
+        <v>739</v>
       </c>
       <c r="O279" t="s">
-        <v>656</v>
+        <v>15</v>
       </c>
       <c r="P279" t="s">
-        <v>422</v>
+        <v>689</v>
       </c>
       <c r="R279" t="s">
         <v>403</v>
       </c>
       <c r="S279">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E280" s="14">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="F280" s="2">
-        <v>0.75</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G280" s="2">
-        <v>0.76388888888888884</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="H280">
         <v>1</v>
       </c>
       <c r="I280" t="s">
-        <v>624</v>
+        <v>79</v>
       </c>
       <c r="J280" s="4" t="s">
-        <v>625</v>
+        <v>80</v>
       </c>
       <c r="K280" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L280">
         <v>1</v>
       </c>
       <c r="M280" t="s">
-        <v>624</v>
+        <v>79</v>
       </c>
       <c r="N280" s="4" t="s">
-        <v>625</v>
+        <v>80</v>
       </c>
       <c r="O280" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P280" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="R280" t="s">
         <v>403</v>
       </c>
       <c r="S280">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E281" s="14">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="F281" s="2">
-        <v>0.76388888888888884</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="G281" s="2">
-        <v>0.79861111111111116</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="H281">
         <v>1</v>
       </c>
       <c r="I281" t="s">
-        <v>627</v>
+        <v>495</v>
       </c>
       <c r="J281" s="4" t="s">
-        <v>628</v>
+        <v>496</v>
       </c>
       <c r="K281" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L281">
         <v>1</v>
       </c>
       <c r="M281" t="s">
-        <v>627</v>
+        <v>495</v>
       </c>
       <c r="N281" s="4" t="s">
-        <v>628</v>
+        <v>496</v>
       </c>
       <c r="O281" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P281" t="s">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="R281" t="s">
         <v>403</v>
       </c>
       <c r="S281">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E282" s="14">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F282" s="2">
-        <v>0.49652777777777773</v>
+        <v>0.25</v>
       </c>
       <c r="G282" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H282">
         <v>1</v>
       </c>
       <c r="I282" t="s">
-        <v>630</v>
+        <v>736</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>631</v>
+        <v>737</v>
       </c>
       <c r="K282" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L282">
         <v>1</v>
       </c>
       <c r="M282" t="s">
-        <v>630</v>
+        <v>736</v>
       </c>
       <c r="N282" s="4" t="s">
-        <v>631</v>
+        <v>737</v>
       </c>
       <c r="O282" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P282" t="s">
-        <v>632</v>
+        <v>738</v>
       </c>
       <c r="R282" t="s">
         <v>403</v>
       </c>
       <c r="S282">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E283" s="14">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="F283" s="2">
-        <v>0.80902777777777779</v>
+        <v>0.25</v>
       </c>
       <c r="G283" s="2">
-        <v>0.81944444444444453</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="s">
-        <v>634</v>
+        <v>742</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>633</v>
+        <v>743</v>
       </c>
       <c r="K283" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M283" t="s">
-        <v>634</v>
+        <v>742</v>
       </c>
       <c r="N283" s="4" t="s">
-        <v>633</v>
+        <v>743</v>
       </c>
       <c r="O283" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P283" t="s">
-        <v>635</v>
+        <v>738</v>
       </c>
       <c r="R283" t="s">
         <v>403</v>
       </c>
       <c r="S283">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E284" s="14">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="F284" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="G284" s="2">
-        <v>0.3576388888888889</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I284" t="s">
-        <v>637</v>
+        <v>744</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>636</v>
+        <v>745</v>
       </c>
       <c r="K284" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M284" t="s">
-        <v>637</v>
+        <v>744</v>
       </c>
       <c r="N284" s="4" t="s">
-        <v>636</v>
+        <v>745</v>
       </c>
       <c r="O284" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P284" t="s">
-        <v>638</v>
+        <v>738</v>
       </c>
       <c r="R284" t="s">
         <v>403</v>
       </c>
       <c r="S284">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E285" s="14">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="F285" s="2">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="G285" s="2">
-        <v>0.3888888888888889</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I285" t="s">
-        <v>640</v>
+        <v>746</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>639</v>
+        <v>747</v>
       </c>
       <c r="K285" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M285" t="s">
-        <v>640</v>
+        <v>746</v>
       </c>
       <c r="N285" s="4" t="s">
-        <v>639</v>
+        <v>747</v>
       </c>
       <c r="O285" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P285" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="R285" t="s">
         <v>403</v>
       </c>
       <c r="S285">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E286" s="14">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="F286" s="2">
-        <v>0.40277777777777773</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G286" s="2">
-        <v>0.4513888888888889</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286" t="s">
-        <v>640</v>
+        <v>79</v>
       </c>
       <c r="J286" s="4" t="s">
-        <v>639</v>
+        <v>80</v>
       </c>
       <c r="K286" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L286">
         <v>1</v>
       </c>
       <c r="M286" t="s">
-        <v>640</v>
+        <v>79</v>
       </c>
       <c r="N286" s="4" t="s">
-        <v>639</v>
+        <v>80</v>
       </c>
       <c r="O286" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P286" t="s">
-        <v>641</v>
+        <v>748</v>
       </c>
       <c r="R286" t="s">
         <v>403</v>
       </c>
       <c r="S286">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E287" s="14">
-        <v>43894</v>
+        <v>43896</v>
       </c>
       <c r="F287" s="2">
-        <v>0.66319444444444442</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="G287" s="2">
-        <v>0.67361111111111116</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287" t="s">
-        <v>642</v>
+        <v>749</v>
       </c>
       <c r="J287" s="4" t="s">
-        <v>643</v>
+        <v>750</v>
       </c>
       <c r="K287" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L287">
         <v>1</v>
       </c>
       <c r="M287" t="s">
-        <v>642</v>
+        <v>749</v>
       </c>
       <c r="N287" s="4" t="s">
-        <v>643</v>
+        <v>750</v>
       </c>
       <c r="O287" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P287" t="s">
-        <v>644</v>
+        <v>751</v>
       </c>
       <c r="R287" t="s">
         <v>403</v>
       </c>
       <c r="S287">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E288" s="14">
         <v>43896</v>
       </c>
       <c r="F288" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G288" s="2">
-        <v>0.42708333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="H288">
         <v>1</v>
       </c>
       <c r="I288" t="s">
-        <v>624</v>
+        <v>736</v>
       </c>
       <c r="J288" s="4" t="s">
-        <v>625</v>
+        <v>737</v>
       </c>
       <c r="K288" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L288">
         <v>1</v>
       </c>
       <c r="M288" t="s">
-        <v>624</v>
+        <v>736</v>
       </c>
       <c r="N288" s="4" t="s">
-        <v>625</v>
+        <v>737</v>
       </c>
       <c r="O288" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P288" t="s">
-        <v>626</v>
+        <v>738</v>
       </c>
       <c r="R288" t="s">
         <v>403</v>
       </c>
       <c r="S288">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E289" s="14">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F289" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.34722222222222227</v>
       </c>
       <c r="G289" s="2">
-        <v>0.58680555555555558</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="H289">
         <v>1</v>
       </c>
       <c r="I289" t="s">
-        <v>645</v>
+        <v>736</v>
       </c>
       <c r="J289" s="4" t="s">
-        <v>646</v>
+        <v>737</v>
       </c>
       <c r="K289" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L289">
         <v>1</v>
       </c>
       <c r="M289" t="s">
-        <v>645</v>
+        <v>736</v>
       </c>
       <c r="N289" s="4" t="s">
-        <v>646</v>
+        <v>737</v>
       </c>
       <c r="O289" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P289" t="s">
-        <v>647</v>
+        <v>738</v>
       </c>
       <c r="R289" t="s">
         <v>403</v>
       </c>
       <c r="S289">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="E290" s="14">
         <v>43897</v>
       </c>
       <c r="F290" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="G290" s="2">
-        <v>0.5</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="H290">
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>648</v>
+        <v>752</v>
       </c>
       <c r="J290" s="4" t="s">
-        <v>649</v>
+        <v>753</v>
       </c>
       <c r="K290" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L290">
         <v>1</v>
       </c>
       <c r="M290" t="s">
-        <v>648</v>
+        <v>752</v>
       </c>
       <c r="N290" s="4" t="s">
-        <v>649</v>
+        <v>753</v>
       </c>
       <c r="O290" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P290" t="s">
-        <v>650</v>
+        <v>754</v>
       </c>
       <c r="R290" t="s">
         <v>403</v>
       </c>
-      <c r="S290">
-        <v>29</v>
+      <c r="S290" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.2">
@@ -15920,41 +16699,14 @@
       <c r="D291" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E291" s="14">
-        <v>43898</v>
-      </c>
-      <c r="F291" s="2">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="G291" s="2">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="H291">
-        <v>1</v>
-      </c>
-      <c r="I291" t="s">
-        <v>624</v>
-      </c>
-      <c r="J291" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="K291" t="s">
-        <v>23</v>
-      </c>
-      <c r="L291">
-        <v>1</v>
-      </c>
-      <c r="M291" t="s">
-        <v>624</v>
-      </c>
-      <c r="N291" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="O291" t="s">
-        <v>23</v>
-      </c>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
+      <c r="I291" s="4"/>
+      <c r="J291" s="4"/>
+      <c r="M291" s="4"/>
+      <c r="N291" s="4"/>
       <c r="P291" t="s">
-        <v>626</v>
+        <v>422</v>
       </c>
       <c r="R291" t="s">
         <v>403</v>
@@ -15973,41 +16725,12 @@
       <c r="D292" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E292" s="14">
-        <v>43899</v>
-      </c>
-      <c r="F292" s="2">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="G292" s="2">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="H292">
-        <v>1</v>
-      </c>
-      <c r="I292" t="s">
-        <v>651</v>
-      </c>
-      <c r="J292" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="K292" t="s">
-        <v>23</v>
-      </c>
-      <c r="L292">
-        <v>1</v>
-      </c>
-      <c r="M292" t="s">
-        <v>651</v>
-      </c>
-      <c r="N292" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="O292" t="s">
-        <v>23</v>
-      </c>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="J292" s="4"/>
+      <c r="N292" s="4"/>
       <c r="P292" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="R292" t="s">
         <v>403</v>
@@ -16018,75 +16741,5618 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E293" s="14">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="F293" s="2">
-        <v>0.26041666666666669</v>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="G293" s="2">
+        <v>0.79861111111111116</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I293" t="s">
-        <v>16</v>
+        <v>625</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="K293" t="s">
+        <v>23</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293" t="s">
+        <v>625</v>
+      </c>
+      <c r="N293" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="O293" t="s">
+        <v>23</v>
       </c>
       <c r="P293" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="R293" t="s">
-        <v>410</v>
-      </c>
-      <c r="S293" t="s">
-        <v>410</v>
+        <v>403</v>
+      </c>
+      <c r="S293">
+        <v>29</v>
       </c>
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294">
+        <v>57</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E294" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F294" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G294" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294" t="s">
+        <v>628</v>
+      </c>
+      <c r="J294" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="K294" t="s">
+        <v>23</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294" t="s">
+        <v>628</v>
+      </c>
+      <c r="N294" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="O294" t="s">
+        <v>23</v>
+      </c>
+      <c r="P294" t="s">
+        <v>630</v>
+      </c>
+      <c r="R294" t="s">
+        <v>403</v>
+      </c>
+      <c r="S294">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>57</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E295" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F295" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="G295" s="2">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295" t="s">
+        <v>632</v>
+      </c>
+      <c r="J295" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K295" t="s">
+        <v>23</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295" t="s">
+        <v>632</v>
+      </c>
+      <c r="N295" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="O295" t="s">
+        <v>23</v>
+      </c>
+      <c r="P295" t="s">
+        <v>633</v>
+      </c>
+      <c r="R295" t="s">
+        <v>403</v>
+      </c>
+      <c r="S295">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>57</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E296" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F296" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G296" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296" t="s">
+        <v>635</v>
+      </c>
+      <c r="J296" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="K296" t="s">
+        <v>23</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="M296" t="s">
+        <v>635</v>
+      </c>
+      <c r="N296" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="O296" t="s">
+        <v>23</v>
+      </c>
+      <c r="P296" t="s">
+        <v>636</v>
+      </c>
+      <c r="R296" t="s">
+        <v>403</v>
+      </c>
+      <c r="S296">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>57</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E297" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F297" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G297" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297" t="s">
+        <v>638</v>
+      </c>
+      <c r="J297" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="K297" t="s">
+        <v>23</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297" t="s">
+        <v>638</v>
+      </c>
+      <c r="N297" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="O297" t="s">
+        <v>23</v>
+      </c>
+      <c r="P297" t="s">
+        <v>639</v>
+      </c>
+      <c r="R297" t="s">
+        <v>403</v>
+      </c>
+      <c r="S297">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>57</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E298" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F298" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="G298" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298" t="s">
+        <v>638</v>
+      </c>
+      <c r="J298" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="K298" t="s">
+        <v>23</v>
+      </c>
+      <c r="L298">
+        <v>1</v>
+      </c>
+      <c r="M298" t="s">
+        <v>638</v>
+      </c>
+      <c r="N298" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="O298" t="s">
+        <v>23</v>
+      </c>
+      <c r="P298" t="s">
+        <v>639</v>
+      </c>
+      <c r="R298" t="s">
+        <v>403</v>
+      </c>
+      <c r="S298">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>57</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E299" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F299" s="2">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="G299" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299" t="s">
+        <v>640</v>
+      </c>
+      <c r="J299" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="K299" t="s">
+        <v>23</v>
+      </c>
+      <c r="L299">
+        <v>1</v>
+      </c>
+      <c r="M299" t="s">
+        <v>640</v>
+      </c>
+      <c r="N299" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="O299" t="s">
+        <v>23</v>
+      </c>
+      <c r="P299" t="s">
+        <v>642</v>
+      </c>
+      <c r="R299" t="s">
+        <v>403</v>
+      </c>
+      <c r="S299">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>57</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E300" s="14">
+        <v>43896</v>
+      </c>
+      <c r="F300" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G300" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+      <c r="I300" t="s">
+        <v>622</v>
+      </c>
+      <c r="J300" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="K300" t="s">
+        <v>23</v>
+      </c>
+      <c r="L300">
+        <v>1</v>
+      </c>
+      <c r="M300" t="s">
+        <v>622</v>
+      </c>
+      <c r="N300" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="O300" t="s">
+        <v>23</v>
+      </c>
+      <c r="P300" t="s">
+        <v>624</v>
+      </c>
+      <c r="R300" t="s">
+        <v>403</v>
+      </c>
+      <c r="S300">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>57</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E301" s="14">
+        <v>43896</v>
+      </c>
+      <c r="F301" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G301" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301" t="s">
+        <v>643</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="K301" t="s">
+        <v>23</v>
+      </c>
+      <c r="L301">
+        <v>1</v>
+      </c>
+      <c r="M301" t="s">
+        <v>643</v>
+      </c>
+      <c r="N301" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="O301" t="s">
+        <v>23</v>
+      </c>
+      <c r="P301" t="s">
+        <v>645</v>
+      </c>
+      <c r="R301" t="s">
+        <v>403</v>
+      </c>
+      <c r="S301">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>57</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E302" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F302" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G302" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302" t="s">
+        <v>646</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="K302" t="s">
+        <v>23</v>
+      </c>
+      <c r="L302">
+        <v>1</v>
+      </c>
+      <c r="M302" t="s">
+        <v>646</v>
+      </c>
+      <c r="N302" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="O302" t="s">
+        <v>23</v>
+      </c>
+      <c r="P302" t="s">
+        <v>648</v>
+      </c>
+      <c r="R302" t="s">
+        <v>403</v>
+      </c>
+      <c r="S302">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>57</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E303" s="14">
+        <v>43898</v>
+      </c>
+      <c r="F303" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="G303" s="2">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="I303" t="s">
+        <v>622</v>
+      </c>
+      <c r="J303" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="K303" t="s">
+        <v>23</v>
+      </c>
+      <c r="L303">
+        <v>1</v>
+      </c>
+      <c r="M303" t="s">
+        <v>622</v>
+      </c>
+      <c r="N303" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="O303" t="s">
+        <v>23</v>
+      </c>
+      <c r="P303" t="s">
+        <v>624</v>
+      </c>
+      <c r="R303" t="s">
+        <v>403</v>
+      </c>
+      <c r="S303">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>57</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E304" s="14">
+        <v>43899</v>
+      </c>
+      <c r="F304" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G304" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+      <c r="I304" t="s">
+        <v>649</v>
+      </c>
+      <c r="J304" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="K304" t="s">
+        <v>23</v>
+      </c>
+      <c r="L304">
+        <v>1</v>
+      </c>
+      <c r="M304" t="s">
+        <v>649</v>
+      </c>
+      <c r="N304" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="O304" t="s">
+        <v>23</v>
+      </c>
+      <c r="P304" t="s">
+        <v>639</v>
+      </c>
+      <c r="R304" t="s">
+        <v>403</v>
+      </c>
+      <c r="S304">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A305">
         <v>58</v>
       </c>
-      <c r="B294" s="5" t="s">
+      <c r="B305" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D294" s="5" t="s">
+      <c r="D305" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E294" s="14">
+      <c r="E305" s="14">
+        <v>43890</v>
+      </c>
+      <c r="F305" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="I305" t="s">
+        <v>16</v>
+      </c>
+      <c r="P305" t="s">
+        <v>651</v>
+      </c>
+      <c r="R305" t="s">
+        <v>410</v>
+      </c>
+      <c r="S305" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>58</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E306" s="14">
         <v>43897</v>
       </c>
-      <c r="F294" s="2">
+      <c r="F306" s="2">
         <v>0.47222222222222227</v>
       </c>
-      <c r="G294" s="2">
+      <c r="G306" s="2">
         <v>0.73263888888888884</v>
       </c>
-      <c r="H294">
+      <c r="H306">
         <v>0</v>
       </c>
-      <c r="I294" t="s">
+      <c r="I306" t="s">
         <v>16</v>
       </c>
-      <c r="L294">
+      <c r="L306">
         <v>0</v>
       </c>
-      <c r="M294" t="s">
+      <c r="M306" t="s">
         <v>16</v>
       </c>
-      <c r="P294" t="s">
-        <v>654</v>
-      </c>
-      <c r="R294" t="s">
+      <c r="P306" t="s">
+        <v>652</v>
+      </c>
+      <c r="R306" t="s">
         <v>410</v>
       </c>
-      <c r="S294" t="s">
+      <c r="S306" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>59</v>
+      </c>
+      <c r="B307" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E307" s="14">
+        <v>43889</v>
+      </c>
+      <c r="F307" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="I307" t="s">
+        <v>16</v>
+      </c>
+      <c r="P307" t="s">
+        <v>656</v>
+      </c>
+      <c r="R307" t="s">
+        <v>408</v>
+      </c>
+      <c r="S307" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>59</v>
+      </c>
+      <c r="B308" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E308" s="14">
+        <v>43892</v>
+      </c>
+      <c r="G308" s="2">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="H308">
+        <v>2</v>
+      </c>
+      <c r="M308" t="s">
+        <v>16</v>
+      </c>
+      <c r="P308" t="s">
+        <v>661</v>
+      </c>
+      <c r="R308" t="s">
+        <v>408</v>
+      </c>
+      <c r="S308" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>60</v>
+      </c>
+      <c r="B309" t="s">
+        <v>657</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="14">
+        <v>43894</v>
+      </c>
+      <c r="G309" s="2">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M309" s="17"/>
+      <c r="P309" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="R309" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="S309" s="17" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>60</v>
+      </c>
+      <c r="B310" t="s">
+        <v>657</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E310" s="14">
+        <v>43895</v>
+      </c>
+      <c r="F310" s="2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P310" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="R310" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="S310" s="17" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>60</v>
+      </c>
+      <c r="B311" t="s">
+        <v>657</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E311" s="14">
+        <v>43898</v>
+      </c>
+      <c r="F311" s="2">
+        <v>0.98958333333333304</v>
+      </c>
+      <c r="G311" s="2">
+        <v>0.18402777777777801</v>
+      </c>
+      <c r="H311">
+        <v>0</v>
+      </c>
+      <c r="I311" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P311" t="s">
+        <v>660</v>
+      </c>
+      <c r="R311" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="S311" s="17" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>61</v>
+      </c>
+      <c r="B312" t="s">
+        <v>728</v>
+      </c>
+      <c r="D312" t="s">
+        <v>279</v>
+      </c>
+      <c r="E312" s="14">
+        <v>43886</v>
+      </c>
+      <c r="F312" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G312" s="2">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="I312" t="s">
+        <v>16</v>
+      </c>
+      <c r="P312" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="R312" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S312" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>61</v>
+      </c>
+      <c r="B313" t="s">
+        <v>728</v>
+      </c>
+      <c r="D313" t="s">
+        <v>279</v>
+      </c>
+      <c r="E313" s="14">
+        <v>43886</v>
+      </c>
+      <c r="F313" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G313" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H313">
+        <v>0</v>
+      </c>
+      <c r="I313" t="s">
+        <v>16</v>
+      </c>
+      <c r="P313" t="s">
+        <v>664</v>
+      </c>
+      <c r="R313" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S313" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>61</v>
+      </c>
+      <c r="B314" t="s">
+        <v>728</v>
+      </c>
+      <c r="D314" t="s">
+        <v>279</v>
+      </c>
+      <c r="E314" s="14">
+        <v>43893</v>
+      </c>
+      <c r="F314" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G314" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P314" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="R314" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S314" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="19">
+        <v>61</v>
+      </c>
+      <c r="B315" t="s">
+        <v>728</v>
+      </c>
+      <c r="D315" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E315" s="20">
+        <v>43894</v>
+      </c>
+      <c r="F315" s="21">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G315" s="21">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="I315" s="22"/>
+      <c r="L315" s="19">
+        <v>0</v>
+      </c>
+      <c r="M315" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P315" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="R315" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S315" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>61</v>
+      </c>
+      <c r="B316" t="s">
+        <v>728</v>
+      </c>
+      <c r="D316" t="s">
+        <v>279</v>
+      </c>
+      <c r="E316" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F316" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="G316" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+      <c r="I316" t="s">
+        <v>670</v>
+      </c>
+      <c r="J316" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="K316" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="L316">
+        <v>1</v>
+      </c>
+      <c r="M316" t="s">
+        <v>670</v>
+      </c>
+      <c r="N316" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="O316" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="P316" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="R316" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S316" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>61</v>
+      </c>
+      <c r="B317" t="s">
+        <v>728</v>
+      </c>
+      <c r="D317" t="s">
+        <v>279</v>
+      </c>
+      <c r="E317" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F317" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G317" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317" t="s">
+        <v>674</v>
+      </c>
+      <c r="J317" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="K317" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+      <c r="M317" t="s">
+        <v>674</v>
+      </c>
+      <c r="N317" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="O317" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P317" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="R317" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S317" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>62</v>
+      </c>
+      <c r="B318" t="s">
+        <v>728</v>
+      </c>
+      <c r="D318" t="s">
+        <v>279</v>
+      </c>
+      <c r="E318" s="14">
+        <v>43896</v>
+      </c>
+      <c r="F318" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G318" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318" t="s">
+        <v>674</v>
+      </c>
+      <c r="J318" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="K318" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318" t="s">
+        <v>674</v>
+      </c>
+      <c r="N318" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="O318" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P318" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="R318" s="17"/>
+      <c r="S318" s="17"/>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>61</v>
+      </c>
+      <c r="B319" t="s">
+        <v>728</v>
+      </c>
+      <c r="D319" t="s">
+        <v>279</v>
+      </c>
+      <c r="E319" s="14">
+        <v>43896</v>
+      </c>
+      <c r="F319" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G319" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319" t="s">
+        <v>676</v>
+      </c>
+      <c r="J319" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="K319" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L319">
+        <v>1</v>
+      </c>
+      <c r="M319" t="s">
+        <v>676</v>
+      </c>
+      <c r="N319" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="O319" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P319" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="R319" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S319" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>62</v>
+      </c>
+      <c r="B320" t="s">
+        <v>728</v>
+      </c>
+      <c r="D320" t="s">
+        <v>679</v>
+      </c>
+      <c r="E320" s="14">
+        <v>43880</v>
+      </c>
+      <c r="F320" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="G320" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H320">
+        <v>0</v>
+      </c>
+      <c r="I320" t="s">
+        <v>16</v>
+      </c>
+      <c r="P320" t="s">
+        <v>680</v>
+      </c>
+      <c r="R320" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S320" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>62</v>
+      </c>
+      <c r="B321" t="s">
+        <v>728</v>
+      </c>
+      <c r="D321" t="s">
+        <v>679</v>
+      </c>
+      <c r="E321" s="14">
+        <v>43883</v>
+      </c>
+      <c r="F321" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G321" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321" t="s">
+        <v>16</v>
+      </c>
+      <c r="P321" t="s">
+        <v>681</v>
+      </c>
+      <c r="R321" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S321" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>62</v>
+      </c>
+      <c r="B322" t="s">
+        <v>728</v>
+      </c>
+      <c r="D322" t="s">
+        <v>679</v>
+      </c>
+      <c r="E322" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F322" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G322" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322" t="s">
+        <v>16</v>
+      </c>
+      <c r="P322" t="s">
+        <v>682</v>
+      </c>
+      <c r="R322" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S322" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>62</v>
+      </c>
+      <c r="B323" t="s">
+        <v>728</v>
+      </c>
+      <c r="D323" t="s">
+        <v>679</v>
+      </c>
+      <c r="E323" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F323" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G323" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323" t="s">
+        <v>16</v>
+      </c>
+      <c r="P323" t="s">
+        <v>683</v>
+      </c>
+      <c r="R323" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S323" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>62</v>
+      </c>
+      <c r="B324" t="s">
+        <v>728</v>
+      </c>
+      <c r="D324" t="s">
+        <v>679</v>
+      </c>
+      <c r="E324" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F324" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G324" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324" t="s">
+        <v>685</v>
+      </c>
+      <c r="J324" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="K324" t="s">
+        <v>287</v>
+      </c>
+      <c r="L324">
+        <v>1</v>
+      </c>
+      <c r="M324" t="s">
+        <v>685</v>
+      </c>
+      <c r="N324" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="O324" t="s">
+        <v>287</v>
+      </c>
+      <c r="P324" t="s">
+        <v>687</v>
+      </c>
+      <c r="R324" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S324" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>62</v>
+      </c>
+      <c r="B325" t="s">
+        <v>728</v>
+      </c>
+      <c r="D325" t="s">
+        <v>679</v>
+      </c>
+      <c r="E325" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F325" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G325" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325" t="s">
+        <v>688</v>
+      </c>
+      <c r="K325" t="s">
+        <v>287</v>
+      </c>
+      <c r="L325" s="5">
+        <v>1</v>
+      </c>
+      <c r="M325" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="O325" t="s">
+        <v>287</v>
+      </c>
+      <c r="P325" t="s">
+        <v>689</v>
+      </c>
+      <c r="R325" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S325" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>62</v>
+      </c>
+      <c r="B326" t="s">
+        <v>728</v>
+      </c>
+      <c r="D326" t="s">
+        <v>679</v>
+      </c>
+      <c r="E326" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F326" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="G326" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
+        <v>690</v>
+      </c>
+      <c r="J326" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="K326" t="s">
+        <v>287</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+      <c r="M326" t="s">
+        <v>690</v>
+      </c>
+      <c r="N326" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="O326" t="s">
+        <v>287</v>
+      </c>
+      <c r="P326" t="s">
+        <v>692</v>
+      </c>
+      <c r="R326" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S326" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>62</v>
+      </c>
+      <c r="B327" t="s">
+        <v>728</v>
+      </c>
+      <c r="D327" t="s">
+        <v>679</v>
+      </c>
+      <c r="E327" s="14">
+        <v>43893</v>
+      </c>
+      <c r="F327" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G327" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+      <c r="I327" t="s">
+        <v>693</v>
+      </c>
+      <c r="J327" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="K327" t="s">
+        <v>287</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327" t="s">
+        <v>693</v>
+      </c>
+      <c r="N327" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="O327" t="s">
+        <v>287</v>
+      </c>
+      <c r="P327" t="s">
+        <v>700</v>
+      </c>
+      <c r="R327" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S327" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>62</v>
+      </c>
+      <c r="B328" t="s">
+        <v>728</v>
+      </c>
+      <c r="D328" t="s">
+        <v>679</v>
+      </c>
+      <c r="E328" s="14">
+        <v>43893</v>
+      </c>
+      <c r="F328" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G328" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328" t="s">
+        <v>695</v>
+      </c>
+      <c r="J328" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="K328" t="s">
+        <v>287</v>
+      </c>
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328" t="s">
+        <v>695</v>
+      </c>
+      <c r="N328" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="O328" t="s">
+        <v>287</v>
+      </c>
+      <c r="P328" t="s">
+        <v>697</v>
+      </c>
+      <c r="R328" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S328" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>62</v>
+      </c>
+      <c r="B329" t="s">
+        <v>728</v>
+      </c>
+      <c r="D329" t="s">
+        <v>679</v>
+      </c>
+      <c r="E329" s="14">
+        <v>43893</v>
+      </c>
+      <c r="F329" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G329" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329" t="s">
+        <v>698</v>
+      </c>
+      <c r="J329" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="K329" t="s">
+        <v>189</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="O329" t="s">
+        <v>189</v>
+      </c>
+      <c r="R329" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S329" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>62</v>
+      </c>
+      <c r="B330" t="s">
+        <v>728</v>
+      </c>
+      <c r="D330" t="s">
+        <v>679</v>
+      </c>
+      <c r="E330" s="14">
+        <v>43894</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="R330" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S330" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>62</v>
+      </c>
+      <c r="B331" t="s">
+        <v>728</v>
+      </c>
+      <c r="D331" t="s">
+        <v>679</v>
+      </c>
+      <c r="E331" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F331" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G331" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331" t="s">
+        <v>693</v>
+      </c>
+      <c r="J331" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="K331" t="s">
+        <v>287</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331" t="s">
+        <v>693</v>
+      </c>
+      <c r="N331" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="O331" t="s">
+        <v>287</v>
+      </c>
+      <c r="P331" t="s">
+        <v>701</v>
+      </c>
+      <c r="R331" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S331" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>62</v>
+      </c>
+      <c r="B332" t="s">
+        <v>728</v>
+      </c>
+      <c r="D332" t="s">
+        <v>679</v>
+      </c>
+      <c r="E332" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F332" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G332" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
+        <v>693</v>
+      </c>
+      <c r="J332" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="K332" t="s">
+        <v>287</v>
+      </c>
+      <c r="L332">
+        <v>1</v>
+      </c>
+      <c r="M332" t="s">
+        <v>693</v>
+      </c>
+      <c r="N332" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="O332" t="s">
+        <v>287</v>
+      </c>
+      <c r="P332" t="s">
+        <v>702</v>
+      </c>
+      <c r="R332" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S332" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>62</v>
+      </c>
+      <c r="B333" t="s">
+        <v>728</v>
+      </c>
+      <c r="D333" t="s">
+        <v>679</v>
+      </c>
+      <c r="E333" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F333" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G333" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="H333" s="5">
+        <v>1</v>
+      </c>
+      <c r="I333" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="J333" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="K333" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L333" s="5">
+        <v>1</v>
+      </c>
+      <c r="M333" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="N333" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="O333" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="P333" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="R333" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S333" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>62</v>
+      </c>
+      <c r="B334" t="s">
+        <v>728</v>
+      </c>
+      <c r="D334" t="s">
+        <v>679</v>
+      </c>
+      <c r="E334" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F334" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G334" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334" t="s">
+        <v>704</v>
+      </c>
+      <c r="J334" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="K334" t="s">
+        <v>287</v>
+      </c>
+      <c r="L334">
+        <v>1</v>
+      </c>
+      <c r="M334" t="s">
+        <v>704</v>
+      </c>
+      <c r="N334" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="O334" t="s">
+        <v>287</v>
+      </c>
+      <c r="P334" t="s">
+        <v>706</v>
+      </c>
+      <c r="R334" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S334" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>62</v>
+      </c>
+      <c r="B335" t="s">
+        <v>728</v>
+      </c>
+      <c r="D335" t="s">
+        <v>679</v>
+      </c>
+      <c r="E335" s="14">
+        <v>43895</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335" t="s">
+        <v>707</v>
+      </c>
+      <c r="J335" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="K335" t="s">
+        <v>26</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335" t="s">
+        <v>707</v>
+      </c>
+      <c r="N335" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="O335" t="s">
+        <v>26</v>
+      </c>
+      <c r="P335" t="s">
+        <v>709</v>
+      </c>
+      <c r="R335" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S335" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>62</v>
+      </c>
+      <c r="B336" t="s">
+        <v>728</v>
+      </c>
+      <c r="D336" t="s">
+        <v>679</v>
+      </c>
+      <c r="E336" s="14">
+        <v>43895</v>
+      </c>
+      <c r="F336" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="G336" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+      <c r="I336" t="s">
+        <v>713</v>
+      </c>
+      <c r="J336" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="K336" t="s">
+        <v>711</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+      <c r="M336" t="s">
+        <v>713</v>
+      </c>
+      <c r="N336" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="O336" t="s">
+        <v>711</v>
+      </c>
+      <c r="P336" t="s">
+        <v>710</v>
+      </c>
+      <c r="R336" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S336" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>62</v>
+      </c>
+      <c r="B337" t="s">
+        <v>728</v>
+      </c>
+      <c r="D337" t="s">
+        <v>679</v>
+      </c>
+      <c r="E337" s="14">
+        <v>43895</v>
+      </c>
+      <c r="F337" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G337" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337" t="s">
+        <v>695</v>
+      </c>
+      <c r="J337" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="K337" t="s">
+        <v>287</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337" t="s">
+        <v>695</v>
+      </c>
+      <c r="N337" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="O337" t="s">
+        <v>287</v>
+      </c>
+      <c r="P337" t="s">
+        <v>697</v>
+      </c>
+      <c r="R337" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S337" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>63</v>
+      </c>
+      <c r="B338" t="s">
+        <v>729</v>
+      </c>
+      <c r="D338" t="s">
+        <v>279</v>
+      </c>
+      <c r="E338" s="14">
+        <v>43889</v>
+      </c>
+      <c r="F338" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G338" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338" t="s">
+        <v>16</v>
+      </c>
+      <c r="P338" t="s">
+        <v>714</v>
+      </c>
+      <c r="R338" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="S338" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>63</v>
+      </c>
+      <c r="B339" t="s">
+        <v>729</v>
+      </c>
+      <c r="D339" t="s">
+        <v>279</v>
+      </c>
+      <c r="E339" s="14">
+        <v>43896</v>
+      </c>
+      <c r="F339" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="G339" s="2">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+      <c r="M339" t="s">
+        <v>16</v>
+      </c>
+      <c r="P339" t="s">
+        <v>665</v>
+      </c>
+      <c r="R339" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="S339" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>64</v>
+      </c>
+      <c r="B340" t="s">
+        <v>655</v>
+      </c>
+      <c r="D340" t="s">
+        <v>279</v>
+      </c>
+      <c r="E340" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F340" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="G340" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="H340">
+        <v>0</v>
+      </c>
+      <c r="I340" t="s">
+        <v>16</v>
+      </c>
+      <c r="P340" t="s">
+        <v>755</v>
+      </c>
+      <c r="R340" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S340" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>64</v>
+      </c>
+      <c r="B341" t="s">
+        <v>655</v>
+      </c>
+      <c r="D341" t="s">
+        <v>279</v>
+      </c>
+      <c r="E341" s="14">
+        <v>43899</v>
+      </c>
+      <c r="F341" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G341" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341" t="s">
+        <v>16</v>
+      </c>
+      <c r="P341" t="s">
+        <v>756</v>
+      </c>
+      <c r="R341" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S341" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>65</v>
+      </c>
+      <c r="B342" t="s">
+        <v>729</v>
+      </c>
+      <c r="D342" t="s">
+        <v>279</v>
+      </c>
+      <c r="E342" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F342" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="G342" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342" t="s">
+        <v>16</v>
+      </c>
+      <c r="P342" t="s">
+        <v>715</v>
+      </c>
+      <c r="R342" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="S342" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>65</v>
+      </c>
+      <c r="B343" t="s">
+        <v>729</v>
+      </c>
+      <c r="D343" t="s">
+        <v>279</v>
+      </c>
+      <c r="E343" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F343" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G343" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H343">
+        <v>0</v>
+      </c>
+      <c r="I343" t="s">
+        <v>16</v>
+      </c>
+      <c r="P343" t="s">
+        <v>716</v>
+      </c>
+      <c r="R343" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="S343" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>65</v>
+      </c>
+      <c r="B344" t="s">
+        <v>729</v>
+      </c>
+      <c r="D344" t="s">
+        <v>279</v>
+      </c>
+      <c r="E344" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F344" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="G344" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="H344">
+        <v>0</v>
+      </c>
+      <c r="I344" t="s">
+        <v>16</v>
+      </c>
+      <c r="P344" t="s">
+        <v>717</v>
+      </c>
+      <c r="R344" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="S344" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>65</v>
+      </c>
+      <c r="B345" t="s">
+        <v>729</v>
+      </c>
+      <c r="D345" t="s">
+        <v>279</v>
+      </c>
+      <c r="E345" s="14">
+        <v>43898</v>
+      </c>
+      <c r="F345" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G345" s="2">
+        <v>0.9590277777777777</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345" t="s">
+        <v>16</v>
+      </c>
+      <c r="P345" t="s">
+        <v>718</v>
+      </c>
+      <c r="R345" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="S345" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>66</v>
+      </c>
+      <c r="B346" t="s">
+        <v>655</v>
+      </c>
+      <c r="D346" t="s">
+        <v>26</v>
+      </c>
+      <c r="E346" s="14">
+        <v>43888</v>
+      </c>
+      <c r="F346" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G346" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="H346">
+        <v>0</v>
+      </c>
+      <c r="I346" t="s">
+        <v>16</v>
+      </c>
+      <c r="P346" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>735</v>
+      </c>
+      <c r="R346" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S346" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>66</v>
+      </c>
+      <c r="B347" t="s">
+        <v>655</v>
+      </c>
+      <c r="D347" t="s">
+        <v>26</v>
+      </c>
+      <c r="E347" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F347" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G347" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+      <c r="M347" t="s">
+        <v>16</v>
+      </c>
+      <c r="P347" t="s">
+        <v>720</v>
+      </c>
+      <c r="R347" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S347" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>67</v>
+      </c>
+      <c r="B348" t="s">
+        <v>730</v>
+      </c>
+      <c r="D348" t="s">
+        <v>26</v>
+      </c>
+      <c r="E348" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F348" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G348" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348" t="s">
+        <v>16</v>
+      </c>
+      <c r="P348" t="s">
+        <v>721</v>
+      </c>
+      <c r="R348" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="S348" s="17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>68</v>
+      </c>
+      <c r="B349" t="s">
+        <v>731</v>
+      </c>
+      <c r="D349" t="s">
+        <v>278</v>
+      </c>
+      <c r="E349" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F349" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G349" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H349">
+        <v>0</v>
+      </c>
+      <c r="I349" t="s">
+        <v>16</v>
+      </c>
+      <c r="P349" t="s">
+        <v>722</v>
+      </c>
+      <c r="R349" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S349" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>68</v>
+      </c>
+      <c r="B350" t="s">
+        <v>731</v>
+      </c>
+      <c r="D350" t="s">
+        <v>278</v>
+      </c>
+      <c r="E350" s="14">
+        <v>43898</v>
+      </c>
+      <c r="F350" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G350" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+      <c r="M350" t="s">
+        <v>16</v>
+      </c>
+      <c r="P350" t="s">
+        <v>722</v>
+      </c>
+      <c r="R350" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S350" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>69</v>
+      </c>
+      <c r="B351" t="s">
+        <v>731</v>
+      </c>
+      <c r="D351" t="s">
+        <v>278</v>
+      </c>
+      <c r="E351" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F351" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="G351" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351" t="s">
+        <v>16</v>
+      </c>
+      <c r="P351" t="s">
+        <v>722</v>
+      </c>
+      <c r="R351" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S351" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>69</v>
+      </c>
+      <c r="B352" t="s">
+        <v>731</v>
+      </c>
+      <c r="D352" t="s">
+        <v>278</v>
+      </c>
+      <c r="E352" s="14">
+        <v>43898</v>
+      </c>
+      <c r="F352" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G352" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352" t="s">
+        <v>16</v>
+      </c>
+      <c r="P352" t="s">
+        <v>722</v>
+      </c>
+      <c r="R352" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S352" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>70</v>
+      </c>
+      <c r="B353" t="s">
+        <v>733</v>
+      </c>
+      <c r="D353" t="s">
+        <v>551</v>
+      </c>
+      <c r="E353" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F353" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="G353" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="H353">
+        <v>0</v>
+      </c>
+      <c r="I353" t="s">
+        <v>16</v>
+      </c>
+      <c r="P353" t="s">
+        <v>724</v>
+      </c>
+      <c r="R353" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="S353" s="17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>70</v>
+      </c>
+      <c r="B354" t="s">
+        <v>733</v>
+      </c>
+      <c r="D354" t="s">
+        <v>551</v>
+      </c>
+      <c r="E354" s="14">
+        <v>43897</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354" t="s">
+        <v>16</v>
+      </c>
+      <c r="P354" t="s">
+        <v>723</v>
+      </c>
+      <c r="R354" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="S354" s="17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>71</v>
+      </c>
+      <c r="B355" t="s">
+        <v>732</v>
+      </c>
+      <c r="D355" t="s">
+        <v>279</v>
+      </c>
+      <c r="E355" s="14">
+        <v>43887</v>
+      </c>
+      <c r="H355">
+        <v>1</v>
+      </c>
+      <c r="I355" t="s">
+        <v>813</v>
+      </c>
+      <c r="J355" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="K355" t="s">
+        <v>119</v>
+      </c>
+      <c r="L355">
+        <v>1</v>
+      </c>
+      <c r="M355" t="s">
+        <v>813</v>
+      </c>
+      <c r="N355" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="O355" t="s">
+        <v>119</v>
+      </c>
+      <c r="P355" t="s">
+        <v>813</v>
+      </c>
+      <c r="R355" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S355" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>71</v>
+      </c>
+      <c r="B356" t="s">
+        <v>732</v>
+      </c>
+      <c r="D356" t="s">
+        <v>279</v>
+      </c>
+      <c r="E356" s="14">
+        <v>43885</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356" t="s">
+        <v>815</v>
+      </c>
+      <c r="J356" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="K356" t="s">
+        <v>119</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356" t="s">
+        <v>815</v>
+      </c>
+      <c r="N356" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="O356" t="s">
+        <v>119</v>
+      </c>
+      <c r="P356" t="s">
+        <v>817</v>
+      </c>
+      <c r="R356" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S356" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>71</v>
+      </c>
+      <c r="B357" t="s">
+        <v>732</v>
+      </c>
+      <c r="D357" t="s">
+        <v>279</v>
+      </c>
+      <c r="E357" s="14">
+        <v>43886</v>
+      </c>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5">
+        <v>1</v>
+      </c>
+      <c r="I357" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="J357" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="K357" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L357" s="5">
+        <v>1</v>
+      </c>
+      <c r="M357" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="N357" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="O357" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P357" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="R357" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S357" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>71</v>
+      </c>
+      <c r="B358" t="s">
+        <v>732</v>
+      </c>
+      <c r="D358" t="s">
+        <v>279</v>
+      </c>
+      <c r="E358" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F358" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G358" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+      <c r="I358" t="s">
+        <v>820</v>
+      </c>
+      <c r="J358" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="K358" t="s">
+        <v>217</v>
+      </c>
+      <c r="L358">
+        <v>1</v>
+      </c>
+      <c r="M358" t="s">
+        <v>820</v>
+      </c>
+      <c r="N358" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="O358" t="s">
+        <v>217</v>
+      </c>
+      <c r="P358" t="s">
+        <v>819</v>
+      </c>
+      <c r="R358" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S358" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>71</v>
+      </c>
+      <c r="B359" t="s">
+        <v>732</v>
+      </c>
+      <c r="D359" t="s">
+        <v>279</v>
+      </c>
+      <c r="E359" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F359" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G359" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359" t="s">
+        <v>821</v>
+      </c>
+      <c r="J359" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="K359" t="s">
+        <v>514</v>
+      </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
+      <c r="M359" t="s">
+        <v>821</v>
+      </c>
+      <c r="N359" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="O359" t="s">
+        <v>514</v>
+      </c>
+      <c r="P359" t="s">
+        <v>823</v>
+      </c>
+      <c r="R359" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S359" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>71</v>
+      </c>
+      <c r="B360" t="s">
+        <v>732</v>
+      </c>
+      <c r="D360" t="s">
+        <v>279</v>
+      </c>
+      <c r="E360" s="14">
+        <v>43895</v>
+      </c>
+      <c r="F360" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="G360" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="K360" t="s">
+        <v>514</v>
+      </c>
+      <c r="L360">
+        <v>1</v>
+      </c>
+      <c r="O360" t="s">
+        <v>514</v>
+      </c>
+      <c r="R360" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S360" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>71</v>
+      </c>
+      <c r="B361" t="s">
+        <v>732</v>
+      </c>
+      <c r="D361" t="s">
+        <v>279</v>
+      </c>
+      <c r="E361" s="1">
+        <v>43901</v>
+      </c>
+      <c r="F361" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="G361" s="14"/>
+      <c r="P361" t="s">
+        <v>725</v>
+      </c>
+      <c r="R361" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S361" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>72</v>
+      </c>
+      <c r="B362" t="s">
+        <v>183</v>
+      </c>
+      <c r="D362" t="s">
+        <v>26</v>
+      </c>
+      <c r="E362" s="14">
+        <v>43888</v>
+      </c>
+      <c r="F362" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="G362" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362" t="s">
+        <v>16</v>
+      </c>
+      <c r="P362" t="s">
+        <v>726</v>
+      </c>
+      <c r="R362" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="S362" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>72</v>
+      </c>
+      <c r="B363" t="s">
+        <v>183</v>
+      </c>
+      <c r="D363" t="s">
+        <v>26</v>
+      </c>
+      <c r="E363" s="14">
+        <v>43895</v>
+      </c>
+      <c r="F363" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G363" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+      <c r="M363" t="s">
+        <v>16</v>
+      </c>
+      <c r="P363" t="s">
+        <v>727</v>
+      </c>
+      <c r="R363" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="S363" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>73</v>
+      </c>
+      <c r="B364" t="s">
+        <v>451</v>
+      </c>
+      <c r="D364" t="s">
+        <v>279</v>
+      </c>
+      <c r="E364" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F364" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G364" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364" t="s">
+        <v>16</v>
+      </c>
+      <c r="P364" t="s">
+        <v>759</v>
+      </c>
+      <c r="R364" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="S364" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="T364" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>73</v>
+      </c>
+      <c r="B365" t="s">
+        <v>451</v>
+      </c>
+      <c r="D365" t="s">
+        <v>279</v>
+      </c>
+      <c r="E365" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F365" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="G365" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+      <c r="M365" t="s">
+        <v>16</v>
+      </c>
+      <c r="P365" t="s">
+        <v>760</v>
+      </c>
+      <c r="R365" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="S365" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="T365" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>74</v>
+      </c>
+      <c r="B366" t="s">
+        <v>655</v>
+      </c>
+      <c r="D366" t="s">
+        <v>26</v>
+      </c>
+      <c r="E366" s="14">
+        <v>43887</v>
+      </c>
+      <c r="F366" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G366" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366" t="s">
+        <v>16</v>
+      </c>
+      <c r="P366" t="s">
+        <v>778</v>
+      </c>
+      <c r="R366" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S366" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="T366" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>74</v>
+      </c>
+      <c r="B367" t="s">
+        <v>655</v>
+      </c>
+      <c r="D367" t="s">
+        <v>26</v>
+      </c>
+      <c r="E367" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F367" s="2">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="G367" s="2">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+      <c r="M367" t="s">
+        <v>16</v>
+      </c>
+      <c r="P367" t="s">
+        <v>779</v>
+      </c>
+      <c r="R367" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S367" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="T367" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>74</v>
+      </c>
+      <c r="B368" t="s">
+        <v>655</v>
+      </c>
+      <c r="D368" t="s">
+        <v>26</v>
+      </c>
+      <c r="E368" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F368" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G368" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368" t="s">
+        <v>765</v>
+      </c>
+      <c r="J368" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="K368" t="s">
+        <v>762</v>
+      </c>
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="M368" t="s">
+        <v>765</v>
+      </c>
+      <c r="N368" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="O368" t="s">
+        <v>762</v>
+      </c>
+      <c r="P368" t="s">
+        <v>767</v>
+      </c>
+      <c r="R368" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S368" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="T368" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>74</v>
+      </c>
+      <c r="B369" t="s">
+        <v>655</v>
+      </c>
+      <c r="D369" t="s">
+        <v>26</v>
+      </c>
+      <c r="E369" s="14">
+        <v>43893</v>
+      </c>
+      <c r="F369" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G369" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369" t="s">
+        <v>768</v>
+      </c>
+      <c r="J369" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="K369" t="s">
+        <v>684</v>
+      </c>
+      <c r="L369">
+        <v>1</v>
+      </c>
+      <c r="M369" t="s">
+        <v>768</v>
+      </c>
+      <c r="N369" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="O369" t="s">
+        <v>684</v>
+      </c>
+      <c r="P369" t="s">
+        <v>770</v>
+      </c>
+      <c r="R369" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S369" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="T369" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>75</v>
+      </c>
+      <c r="B370" t="s">
+        <v>451</v>
+      </c>
+      <c r="D370" t="s">
+        <v>26</v>
+      </c>
+      <c r="E370" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F370" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="G370" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H370">
+        <v>0</v>
+      </c>
+      <c r="I370" t="s">
+        <v>16</v>
+      </c>
+      <c r="P370" t="s">
+        <v>771</v>
+      </c>
+      <c r="R370" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="S370" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="T370" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>75</v>
+      </c>
+      <c r="B371" t="s">
+        <v>451</v>
+      </c>
+      <c r="D371" t="s">
+        <v>26</v>
+      </c>
+      <c r="E371" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F371" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G371" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371" t="s">
+        <v>16</v>
+      </c>
+      <c r="P371" t="s">
+        <v>773</v>
+      </c>
+      <c r="R371" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="S371" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="T371" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>75</v>
+      </c>
+      <c r="B372" t="s">
+        <v>451</v>
+      </c>
+      <c r="D372" t="s">
+        <v>26</v>
+      </c>
+      <c r="E372" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F372" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G372" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+      <c r="M372" t="s">
+        <v>16</v>
+      </c>
+      <c r="P372" t="s">
+        <v>775</v>
+      </c>
+      <c r="R372" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="S372" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="T372" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>75</v>
+      </c>
+      <c r="B373" t="s">
+        <v>451</v>
+      </c>
+      <c r="D373" t="s">
+        <v>26</v>
+      </c>
+      <c r="E373" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F373" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="G373" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+      <c r="M373" t="s">
+        <v>16</v>
+      </c>
+      <c r="P373" t="s">
+        <v>780</v>
+      </c>
+      <c r="R373" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="S373" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="T373" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>76</v>
+      </c>
+      <c r="B374" t="s">
+        <v>824</v>
+      </c>
+      <c r="D374" t="s">
+        <v>278</v>
+      </c>
+      <c r="E374" s="14">
+        <v>43889</v>
+      </c>
+      <c r="F374" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G374" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374" t="s">
+        <v>16</v>
+      </c>
+      <c r="P374" t="s">
+        <v>788</v>
+      </c>
+      <c r="R374" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="S374" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="T374" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>76</v>
+      </c>
+      <c r="B375" t="s">
+        <v>824</v>
+      </c>
+      <c r="D375" t="s">
+        <v>278</v>
+      </c>
+      <c r="E375" s="14">
+        <v>43893</v>
+      </c>
+      <c r="F375" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="G375" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375" t="s">
+        <v>16</v>
+      </c>
+      <c r="P375" t="s">
+        <v>789</v>
+      </c>
+      <c r="R375" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="S375" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="T375" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>76</v>
+      </c>
+      <c r="B376" t="s">
+        <v>824</v>
+      </c>
+      <c r="D376" t="s">
+        <v>278</v>
+      </c>
+      <c r="E376" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F376" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="G376" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376" t="s">
+        <v>16</v>
+      </c>
+      <c r="P376" t="s">
+        <v>790</v>
+      </c>
+      <c r="R376" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="S376" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="T376" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>76</v>
+      </c>
+      <c r="B377" t="s">
+        <v>824</v>
+      </c>
+      <c r="D377" t="s">
+        <v>278</v>
+      </c>
+      <c r="E377" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F377" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G377" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377" t="s">
+        <v>16</v>
+      </c>
+      <c r="P377" t="s">
+        <v>791</v>
+      </c>
+      <c r="R377" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="S377" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="T377" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>76</v>
+      </c>
+      <c r="B378" t="s">
+        <v>824</v>
+      </c>
+      <c r="D378" t="s">
+        <v>278</v>
+      </c>
+      <c r="E378" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F378" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="G378" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+      <c r="M378" t="s">
+        <v>16</v>
+      </c>
+      <c r="P378" t="s">
+        <v>792</v>
+      </c>
+      <c r="R378" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="S378" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="T378" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>76</v>
+      </c>
+      <c r="B379" t="s">
+        <v>824</v>
+      </c>
+      <c r="D379" t="s">
+        <v>278</v>
+      </c>
+      <c r="E379" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F379" s="2">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="G379" s="2">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379" t="s">
+        <v>16</v>
+      </c>
+      <c r="L379">
+        <v>1</v>
+      </c>
+      <c r="M379" t="s">
+        <v>794</v>
+      </c>
+      <c r="N379" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="O379" t="s">
+        <v>26</v>
+      </c>
+      <c r="P379" t="s">
+        <v>94</v>
+      </c>
+      <c r="R379" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="S379" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="T379" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>76</v>
+      </c>
+      <c r="B380" t="s">
+        <v>824</v>
+      </c>
+      <c r="D380" t="s">
+        <v>278</v>
+      </c>
+      <c r="E380" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F380" s="2">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="G380" s="2">
+        <v>0.94236111111111109</v>
+      </c>
+      <c r="H380">
+        <v>1</v>
+      </c>
+      <c r="I380" t="s">
+        <v>794</v>
+      </c>
+      <c r="J380" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="K380" t="s">
+        <v>26</v>
+      </c>
+      <c r="L380">
+        <v>1</v>
+      </c>
+      <c r="M380" t="s">
+        <v>364</v>
+      </c>
+      <c r="N380" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="O380" t="s">
+        <v>364</v>
+      </c>
+      <c r="P380" t="s">
+        <v>94</v>
+      </c>
+      <c r="R380" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="S380" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="T380" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>77</v>
+      </c>
+      <c r="B381" t="s">
+        <v>466</v>
+      </c>
+      <c r="D381" t="s">
+        <v>15</v>
+      </c>
+      <c r="E381" s="14">
+        <v>43888</v>
+      </c>
+      <c r="F381" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="G381" s="2">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381" t="s">
+        <v>16</v>
+      </c>
+      <c r="P381" t="s">
+        <v>797</v>
+      </c>
+      <c r="R381" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S381" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="T381" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>77</v>
+      </c>
+      <c r="B382" t="s">
+        <v>466</v>
+      </c>
+      <c r="D382" t="s">
+        <v>15</v>
+      </c>
+      <c r="E382" s="14">
+        <v>43893</v>
+      </c>
+      <c r="F382" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="G382" s="2">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="M382" t="s">
+        <v>16</v>
+      </c>
+      <c r="P382" t="s">
+        <v>799</v>
+      </c>
+      <c r="R382" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S382" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="T382" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>77</v>
+      </c>
+      <c r="B383" t="s">
+        <v>466</v>
+      </c>
+      <c r="D383" t="s">
+        <v>15</v>
+      </c>
+      <c r="E383" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F383" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G383" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H383">
+        <v>1</v>
+      </c>
+      <c r="I383" t="s">
+        <v>806</v>
+      </c>
+      <c r="J383" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="K383" t="s">
+        <v>801</v>
+      </c>
+      <c r="L383">
+        <v>1</v>
+      </c>
+      <c r="M383" t="s">
+        <v>806</v>
+      </c>
+      <c r="N383" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="O383" t="s">
+        <v>801</v>
+      </c>
+      <c r="P383" t="s">
+        <v>808</v>
+      </c>
+      <c r="R383" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S383" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="T383" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>77</v>
+      </c>
+      <c r="B384" t="s">
+        <v>466</v>
+      </c>
+      <c r="D384" t="s">
+        <v>15</v>
+      </c>
+      <c r="E384" s="14">
+        <v>43893</v>
+      </c>
+      <c r="F384" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G384" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H384">
+        <v>1</v>
+      </c>
+      <c r="I384" t="s">
+        <v>809</v>
+      </c>
+      <c r="J384" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="K384" t="s">
+        <v>801</v>
+      </c>
+      <c r="L384">
+        <v>1</v>
+      </c>
+      <c r="M384" t="s">
+        <v>809</v>
+      </c>
+      <c r="N384" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="O384" t="s">
+        <v>801</v>
+      </c>
+      <c r="P384" t="s">
+        <v>811</v>
+      </c>
+      <c r="R384" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S384" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="T384" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>77</v>
+      </c>
+      <c r="B385" t="s">
+        <v>466</v>
+      </c>
+      <c r="D385" t="s">
+        <v>15</v>
+      </c>
+      <c r="E385" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F385" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G385" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H385">
+        <v>1</v>
+      </c>
+      <c r="I385" t="s">
+        <v>809</v>
+      </c>
+      <c r="J385" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="K385" t="s">
+        <v>801</v>
+      </c>
+      <c r="L385">
+        <v>1</v>
+      </c>
+      <c r="M385" t="s">
+        <v>809</v>
+      </c>
+      <c r="N385" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="O385" t="s">
+        <v>801</v>
+      </c>
+      <c r="P385" t="s">
+        <v>245</v>
+      </c>
+      <c r="R385" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S385" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="T385" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>77</v>
+      </c>
+      <c r="B386" t="s">
+        <v>466</v>
+      </c>
+      <c r="D386" t="s">
+        <v>15</v>
+      </c>
+      <c r="E386" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F386" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G386" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H386">
+        <v>1</v>
+      </c>
+      <c r="I386" t="s">
+        <v>809</v>
+      </c>
+      <c r="J386" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="K386" t="s">
+        <v>801</v>
+      </c>
+      <c r="L386">
+        <v>1</v>
+      </c>
+      <c r="M386" t="s">
+        <v>809</v>
+      </c>
+      <c r="N386" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="O386" t="s">
+        <v>801</v>
+      </c>
+      <c r="P386" t="s">
+        <v>812</v>
+      </c>
+      <c r="R386" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="S386" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="T386" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>78</v>
+      </c>
+      <c r="B387" t="s">
+        <v>884</v>
+      </c>
+      <c r="D387" t="s">
+        <v>278</v>
+      </c>
+      <c r="E387" s="14">
+        <v>43889</v>
+      </c>
+      <c r="F387" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G387" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H387">
+        <v>1</v>
+      </c>
+      <c r="I387" t="s">
+        <v>835</v>
+      </c>
+      <c r="J387" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="K387" t="s">
+        <v>364</v>
+      </c>
+      <c r="L387">
+        <v>1</v>
+      </c>
+      <c r="M387" t="s">
+        <v>835</v>
+      </c>
+      <c r="N387" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="O387" t="s">
+        <v>364</v>
+      </c>
+      <c r="P387" t="s">
+        <v>837</v>
+      </c>
+      <c r="R387" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S387">
+        <v>51</v>
+      </c>
+      <c r="T387" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>78</v>
+      </c>
+      <c r="B388" t="s">
+        <v>884</v>
+      </c>
+      <c r="D388" t="s">
+        <v>278</v>
+      </c>
+      <c r="E388" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F388" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G388" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="H388" s="5">
+        <v>1</v>
+      </c>
+      <c r="I388" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="J388" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="K388" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="L388" s="5">
+        <v>1</v>
+      </c>
+      <c r="M388" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="N388" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="O388" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="P388" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="R388" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S388">
+        <v>51</v>
+      </c>
+      <c r="T388" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>78</v>
+      </c>
+      <c r="B389" t="s">
+        <v>884</v>
+      </c>
+      <c r="D389" t="s">
+        <v>278</v>
+      </c>
+      <c r="E389" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F389" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G389" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H389">
+        <v>1</v>
+      </c>
+      <c r="I389" t="s">
+        <v>838</v>
+      </c>
+      <c r="J389" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="K389" t="s">
+        <v>364</v>
+      </c>
+      <c r="L389">
+        <v>1</v>
+      </c>
+      <c r="M389" t="s">
+        <v>838</v>
+      </c>
+      <c r="N389" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="O389" t="s">
+        <v>364</v>
+      </c>
+      <c r="P389" t="s">
+        <v>840</v>
+      </c>
+      <c r="R389" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S389">
+        <v>51</v>
+      </c>
+      <c r="T389" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>78</v>
+      </c>
+      <c r="B390" t="s">
+        <v>884</v>
+      </c>
+      <c r="D390" t="s">
+        <v>278</v>
+      </c>
+      <c r="E390" s="14">
+        <v>43896</v>
+      </c>
+      <c r="F390" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G390" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+      <c r="I390" t="s">
+        <v>841</v>
+      </c>
+      <c r="J390" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="K390" t="s">
+        <v>830</v>
+      </c>
+      <c r="L390">
+        <v>1</v>
+      </c>
+      <c r="M390" t="s">
+        <v>841</v>
+      </c>
+      <c r="N390" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="O390" t="s">
+        <v>830</v>
+      </c>
+      <c r="P390" t="s">
+        <v>843</v>
+      </c>
+      <c r="R390" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S390">
+        <v>51</v>
+      </c>
+      <c r="T390" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>78</v>
+      </c>
+      <c r="B391" t="s">
+        <v>884</v>
+      </c>
+      <c r="D391" t="s">
+        <v>278</v>
+      </c>
+      <c r="E391" s="14">
+        <v>43898</v>
+      </c>
+      <c r="F391" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G391" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H391">
+        <v>1</v>
+      </c>
+      <c r="I391" t="s">
+        <v>846</v>
+      </c>
+      <c r="J391" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="K391" t="s">
+        <v>830</v>
+      </c>
+      <c r="L391">
+        <v>1</v>
+      </c>
+      <c r="M391" t="s">
+        <v>846</v>
+      </c>
+      <c r="N391" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="O391" t="s">
+        <v>830</v>
+      </c>
+      <c r="P391" t="s">
+        <v>844</v>
+      </c>
+      <c r="R391" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S391">
+        <v>51</v>
+      </c>
+      <c r="T391" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>78</v>
+      </c>
+      <c r="B392" t="s">
+        <v>884</v>
+      </c>
+      <c r="D392" t="s">
+        <v>278</v>
+      </c>
+      <c r="E392" s="14">
+        <v>43898</v>
+      </c>
+      <c r="F392" s="2">
+        <v>0</v>
+      </c>
+      <c r="G392" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H392">
+        <v>1</v>
+      </c>
+      <c r="I392" t="s">
+        <v>847</v>
+      </c>
+      <c r="J392" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="K392" t="s">
+        <v>833</v>
+      </c>
+      <c r="L392">
+        <v>1</v>
+      </c>
+      <c r="M392" t="s">
+        <v>847</v>
+      </c>
+      <c r="N392" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="O392" t="s">
+        <v>833</v>
+      </c>
+      <c r="P392" t="s">
+        <v>849</v>
+      </c>
+      <c r="R392" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S392">
+        <v>51</v>
+      </c>
+      <c r="T392" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>79</v>
+      </c>
+      <c r="B393" t="s">
+        <v>884</v>
+      </c>
+      <c r="D393" t="s">
+        <v>278</v>
+      </c>
+      <c r="E393" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F393" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="G393" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="H393">
+        <v>1</v>
+      </c>
+      <c r="I393" t="s">
+        <v>862</v>
+      </c>
+      <c r="J393" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="K393" t="s">
+        <v>830</v>
+      </c>
+      <c r="L393">
+        <v>1</v>
+      </c>
+      <c r="M393" t="s">
+        <v>864</v>
+      </c>
+      <c r="N393" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="O393" t="s">
+        <v>863</v>
+      </c>
+      <c r="R393" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S393">
+        <v>78</v>
+      </c>
+      <c r="T393" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>79</v>
+      </c>
+      <c r="B394" t="s">
+        <v>884</v>
+      </c>
+      <c r="D394" t="s">
+        <v>278</v>
+      </c>
+      <c r="E394" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F394" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="G394" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H394">
+        <v>1</v>
+      </c>
+      <c r="I394" t="s">
+        <v>864</v>
+      </c>
+      <c r="J394" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="K394" t="s">
+        <v>863</v>
+      </c>
+      <c r="L394">
+        <v>1</v>
+      </c>
+      <c r="M394" t="s">
+        <v>865</v>
+      </c>
+      <c r="O394" t="s">
+        <v>364</v>
+      </c>
+      <c r="R394" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S394">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>79</v>
+      </c>
+      <c r="B395" t="s">
+        <v>884</v>
+      </c>
+      <c r="D395" t="s">
+        <v>278</v>
+      </c>
+      <c r="E395" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F395" s="2">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="G395" s="2">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="H395">
+        <v>1</v>
+      </c>
+      <c r="I395" t="s">
+        <v>865</v>
+      </c>
+      <c r="J395" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="K395" t="s">
+        <v>364</v>
+      </c>
+      <c r="L395">
+        <v>1</v>
+      </c>
+      <c r="M395" t="s">
+        <v>862</v>
+      </c>
+      <c r="N395" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="O395" t="s">
+        <v>830</v>
+      </c>
+      <c r="R395" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S395">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>79</v>
+      </c>
+      <c r="B396" t="s">
+        <v>884</v>
+      </c>
+      <c r="D396" t="s">
+        <v>278</v>
+      </c>
+      <c r="E396" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F396" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G396" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H396">
+        <v>1</v>
+      </c>
+      <c r="I396" t="s">
+        <v>838</v>
+      </c>
+      <c r="J396" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="K396" t="s">
+        <v>364</v>
+      </c>
+      <c r="L396">
+        <v>1</v>
+      </c>
+      <c r="M396" t="s">
+        <v>838</v>
+      </c>
+      <c r="N396" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="O396" t="s">
+        <v>364</v>
+      </c>
+      <c r="P396" t="s">
+        <v>866</v>
+      </c>
+      <c r="R396" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S396">
+        <v>78</v>
+      </c>
+      <c r="T396" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>79</v>
+      </c>
+      <c r="B397" t="s">
+        <v>884</v>
+      </c>
+      <c r="D397" t="s">
+        <v>278</v>
+      </c>
+      <c r="E397" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F397" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="G397" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="H397">
+        <v>1</v>
+      </c>
+      <c r="I397" t="s">
+        <v>862</v>
+      </c>
+      <c r="J397" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="K397" t="s">
+        <v>830</v>
+      </c>
+      <c r="L397">
+        <v>1</v>
+      </c>
+      <c r="M397" t="s">
+        <v>864</v>
+      </c>
+      <c r="N397" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="O397" t="s">
+        <v>863</v>
+      </c>
+      <c r="R397" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S397">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>79</v>
+      </c>
+      <c r="B398" t="s">
+        <v>884</v>
+      </c>
+      <c r="D398" t="s">
+        <v>278</v>
+      </c>
+      <c r="E398" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F398" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="G398" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H398">
+        <v>1</v>
+      </c>
+      <c r="I398" t="s">
+        <v>864</v>
+      </c>
+      <c r="J398" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="K398" t="s">
+        <v>863</v>
+      </c>
+      <c r="L398">
+        <v>1</v>
+      </c>
+      <c r="M398" t="s">
+        <v>865</v>
+      </c>
+      <c r="O398" t="s">
+        <v>364</v>
+      </c>
+      <c r="R398" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S398">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>79</v>
+      </c>
+      <c r="B399" t="s">
+        <v>884</v>
+      </c>
+      <c r="D399" t="s">
+        <v>278</v>
+      </c>
+      <c r="E399" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F399" s="2">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="G399" s="2">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="H399">
+        <v>1</v>
+      </c>
+      <c r="I399" t="s">
+        <v>865</v>
+      </c>
+      <c r="J399" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="K399" t="s">
+        <v>364</v>
+      </c>
+      <c r="L399">
+        <v>1</v>
+      </c>
+      <c r="M399" t="s">
+        <v>862</v>
+      </c>
+      <c r="N399" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="O399" t="s">
+        <v>830</v>
+      </c>
+      <c r="R399" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S399">
+        <v>78</v>
+      </c>
+      <c r="T399" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>79</v>
+      </c>
+      <c r="B400" t="s">
+        <v>884</v>
+      </c>
+      <c r="D400" t="s">
+        <v>278</v>
+      </c>
+      <c r="E400" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F400" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="G400" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="H400">
+        <v>1</v>
+      </c>
+      <c r="I400" t="s">
+        <v>865</v>
+      </c>
+      <c r="J400" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="K400" t="s">
+        <v>364</v>
+      </c>
+      <c r="L400">
+        <v>1</v>
+      </c>
+      <c r="M400" t="s">
+        <v>868</v>
+      </c>
+      <c r="N400" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="O400" t="s">
+        <v>867</v>
+      </c>
+      <c r="R400" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S400">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>79</v>
+      </c>
+      <c r="B401" t="s">
+        <v>884</v>
+      </c>
+      <c r="D401" t="s">
+        <v>278</v>
+      </c>
+      <c r="E401" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F401" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="G401" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H401">
+        <v>1</v>
+      </c>
+      <c r="I401" t="s">
+        <v>868</v>
+      </c>
+      <c r="J401" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="K401" t="s">
+        <v>867</v>
+      </c>
+      <c r="L401">
+        <v>1</v>
+      </c>
+      <c r="M401" t="s">
+        <v>864</v>
+      </c>
+      <c r="O401" t="s">
+        <v>863</v>
+      </c>
+      <c r="R401" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S401">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>79</v>
+      </c>
+      <c r="B402" t="s">
+        <v>884</v>
+      </c>
+      <c r="D402" t="s">
+        <v>278</v>
+      </c>
+      <c r="E402" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F402" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G402" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H402">
+        <v>1</v>
+      </c>
+      <c r="I402" t="s">
+        <v>864</v>
+      </c>
+      <c r="J402" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="K402" t="s">
+        <v>863</v>
+      </c>
+      <c r="L402">
+        <v>1</v>
+      </c>
+      <c r="M402" t="s">
+        <v>869</v>
+      </c>
+      <c r="N402" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="O402" t="s">
+        <v>178</v>
+      </c>
+      <c r="R402" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S402">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>79</v>
+      </c>
+      <c r="B403" t="s">
+        <v>884</v>
+      </c>
+      <c r="D403" t="s">
+        <v>278</v>
+      </c>
+      <c r="E403" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F403" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="G403" s="2">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="H403">
+        <v>1</v>
+      </c>
+      <c r="I403" t="s">
+        <v>869</v>
+      </c>
+      <c r="J403" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="K403" t="s">
+        <v>853</v>
+      </c>
+      <c r="L403">
+        <v>1</v>
+      </c>
+      <c r="M403" t="s">
+        <v>869</v>
+      </c>
+      <c r="N403" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="O403" t="s">
+        <v>853</v>
+      </c>
+      <c r="P403" t="s">
+        <v>870</v>
+      </c>
+      <c r="R403" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S403">
+        <v>78</v>
+      </c>
+      <c r="T403" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>79</v>
+      </c>
+      <c r="B404" t="s">
+        <v>884</v>
+      </c>
+      <c r="D404" t="s">
+        <v>278</v>
+      </c>
+      <c r="E404" s="14">
+        <v>43894</v>
+      </c>
+      <c r="F404" s="2">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="G404" s="2">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="H404">
+        <v>1</v>
+      </c>
+      <c r="I404" t="s">
+        <v>869</v>
+      </c>
+      <c r="J404" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="K404" t="s">
+        <v>855</v>
+      </c>
+      <c r="L404">
+        <v>1</v>
+      </c>
+      <c r="M404" t="s">
+        <v>862</v>
+      </c>
+      <c r="N404" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="O404" t="s">
+        <v>178</v>
+      </c>
+      <c r="R404" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S404">
+        <v>78</v>
+      </c>
+      <c r="T404" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>79</v>
+      </c>
+      <c r="B405" t="s">
+        <v>884</v>
+      </c>
+      <c r="D405" t="s">
+        <v>278</v>
+      </c>
+      <c r="E405" s="14">
+        <v>43895</v>
+      </c>
+      <c r="F405" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="G405" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="H405">
+        <v>1</v>
+      </c>
+      <c r="I405" t="s">
+        <v>862</v>
+      </c>
+      <c r="J405" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="K405" t="s">
+        <v>830</v>
+      </c>
+      <c r="L405">
+        <v>1</v>
+      </c>
+      <c r="M405" t="s">
+        <v>864</v>
+      </c>
+      <c r="N405" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="O405" t="s">
+        <v>863</v>
+      </c>
+      <c r="R405" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S405">
+        <v>78</v>
+      </c>
+      <c r="T405" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>79</v>
+      </c>
+      <c r="B406" t="s">
+        <v>884</v>
+      </c>
+      <c r="D406" t="s">
+        <v>278</v>
+      </c>
+      <c r="E406" s="14">
+        <v>43895</v>
+      </c>
+      <c r="F406" s="2">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="G406" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406" t="s">
+        <v>864</v>
+      </c>
+      <c r="J406" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="K406" t="s">
+        <v>863</v>
+      </c>
+      <c r="L406">
+        <v>1</v>
+      </c>
+      <c r="M406" t="s">
+        <v>865</v>
+      </c>
+      <c r="N406" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="O406" t="s">
+        <v>364</v>
+      </c>
+      <c r="R406" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S406">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>79</v>
+      </c>
+      <c r="B407" t="s">
+        <v>884</v>
+      </c>
+      <c r="D407" t="s">
+        <v>278</v>
+      </c>
+      <c r="E407" s="14">
+        <v>43895</v>
+      </c>
+      <c r="F407" s="2">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="G407" s="2">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="H407">
+        <v>1</v>
+      </c>
+      <c r="I407" t="s">
+        <v>865</v>
+      </c>
+      <c r="J407" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="K407" t="s">
+        <v>364</v>
+      </c>
+      <c r="L407">
+        <v>1</v>
+      </c>
+      <c r="M407" t="s">
+        <v>862</v>
+      </c>
+      <c r="N407" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="O407" t="s">
+        <v>830</v>
+      </c>
+      <c r="R407" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S407">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>79</v>
+      </c>
+      <c r="B408" t="s">
+        <v>884</v>
+      </c>
+      <c r="D408" t="s">
+        <v>278</v>
+      </c>
+      <c r="E408" s="14">
+        <v>43898</v>
+      </c>
+      <c r="F408" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G408" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H408">
+        <v>1</v>
+      </c>
+      <c r="I408" t="s">
+        <v>871</v>
+      </c>
+      <c r="J408" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="K408" t="s">
+        <v>858</v>
+      </c>
+      <c r="L408">
+        <v>1</v>
+      </c>
+      <c r="M408" t="s">
+        <v>871</v>
+      </c>
+      <c r="N408" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="O408" t="s">
+        <v>858</v>
+      </c>
+      <c r="P408" t="s">
+        <v>515</v>
+      </c>
+      <c r="R408" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S408">
+        <v>78</v>
+      </c>
+      <c r="T408" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>79</v>
+      </c>
+      <c r="B409" t="s">
+        <v>884</v>
+      </c>
+      <c r="D409" t="s">
+        <v>278</v>
+      </c>
+      <c r="E409" s="14">
+        <v>43899</v>
+      </c>
+      <c r="F409" s="2">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="G409" s="2">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="H409">
+        <v>1</v>
+      </c>
+      <c r="I409" t="s">
+        <v>862</v>
+      </c>
+      <c r="J409" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="K409" t="s">
+        <v>830</v>
+      </c>
+      <c r="L409">
+        <v>1</v>
+      </c>
+      <c r="M409" t="s">
+        <v>880</v>
+      </c>
+      <c r="N409" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="O409" t="s">
+        <v>212</v>
+      </c>
+      <c r="R409" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S409">
+        <v>78</v>
+      </c>
+      <c r="T409" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>79</v>
+      </c>
+      <c r="B410" t="s">
+        <v>884</v>
+      </c>
+      <c r="D410" t="s">
+        <v>278</v>
+      </c>
+      <c r="E410" s="14">
+        <v>43899</v>
+      </c>
+      <c r="F410" s="2">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="G410" s="2">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="H410">
+        <v>1</v>
+      </c>
+      <c r="I410" t="s">
+        <v>880</v>
+      </c>
+      <c r="J410" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="K410" t="s">
+        <v>212</v>
+      </c>
+      <c r="L410">
+        <v>1</v>
+      </c>
+      <c r="M410" t="s">
+        <v>883</v>
+      </c>
+      <c r="N410" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="O410" t="s">
+        <v>145</v>
+      </c>
+      <c r="R410" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S410">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>79</v>
+      </c>
+      <c r="B411" t="s">
+        <v>884</v>
+      </c>
+      <c r="D411" t="s">
+        <v>278</v>
+      </c>
+      <c r="E411" s="14">
+        <v>43899</v>
+      </c>
+      <c r="F411" s="2">
+        <v>0.64722222222222225</v>
+      </c>
+      <c r="G411" s="2"/>
+      <c r="H411">
+        <v>1</v>
+      </c>
+      <c r="I411" t="s">
+        <v>864</v>
+      </c>
+      <c r="J411" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="K411" t="s">
+        <v>863</v>
+      </c>
+      <c r="L411">
+        <v>1</v>
+      </c>
+      <c r="M411" t="s">
+        <v>865</v>
+      </c>
+      <c r="N411" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="O411" t="s">
+        <v>364</v>
+      </c>
+      <c r="R411" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S411">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>79</v>
+      </c>
+      <c r="B412" t="s">
+        <v>884</v>
+      </c>
+      <c r="D412" t="s">
+        <v>278</v>
+      </c>
+      <c r="E412" s="14">
+        <v>43899</v>
+      </c>
+      <c r="F412" s="2"/>
+      <c r="G412" s="2"/>
+      <c r="H412">
+        <v>1</v>
+      </c>
+      <c r="I412" t="s">
+        <v>865</v>
+      </c>
+      <c r="J412" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="K412" t="s">
+        <v>364</v>
+      </c>
+      <c r="L412">
+        <v>1</v>
+      </c>
+      <c r="M412" t="s">
+        <v>862</v>
+      </c>
+      <c r="N412" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="O412" t="s">
+        <v>830</v>
+      </c>
+      <c r="R412" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S412">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>79</v>
+      </c>
+      <c r="B413" t="s">
+        <v>884</v>
+      </c>
+      <c r="D413" t="s">
+        <v>278</v>
+      </c>
+      <c r="E413" s="14">
+        <v>43900</v>
+      </c>
+      <c r="F413" s="2">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="G413" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="H413">
+        <v>1</v>
+      </c>
+      <c r="I413" t="s">
+        <v>873</v>
+      </c>
+      <c r="J413" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="K413" t="s">
+        <v>830</v>
+      </c>
+      <c r="L413">
+        <v>1</v>
+      </c>
+      <c r="M413" t="s">
+        <v>873</v>
+      </c>
+      <c r="N413" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="O413" t="s">
+        <v>830</v>
+      </c>
+      <c r="R413" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S413">
+        <v>78</v>
+      </c>
+      <c r="T413" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>80</v>
+      </c>
+      <c r="B414" t="s">
+        <v>891</v>
+      </c>
+      <c r="D414" t="s">
+        <v>279</v>
+      </c>
+      <c r="E414" s="14">
+        <v>43884</v>
+      </c>
+      <c r="F414" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="G414" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+      <c r="I414" t="s">
+        <v>16</v>
+      </c>
+      <c r="P414" t="s">
+        <v>885</v>
+      </c>
+      <c r="R414" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="S414" t="s">
+        <v>402</v>
+      </c>
+      <c r="T414" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>80</v>
+      </c>
+      <c r="B415" t="s">
+        <v>891</v>
+      </c>
+      <c r="D415" t="s">
+        <v>279</v>
+      </c>
+      <c r="E415" s="14">
+        <v>43891</v>
+      </c>
+      <c r="F415" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G415" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+      <c r="M415" t="s">
+        <v>16</v>
+      </c>
+      <c r="P415" t="s">
+        <v>887</v>
+      </c>
+      <c r="R415" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="S415" t="s">
+        <v>402</v>
+      </c>
+      <c r="T415" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>81</v>
+      </c>
+      <c r="B416" t="s">
+        <v>893</v>
+      </c>
+      <c r="D416" t="s">
+        <v>279</v>
+      </c>
+      <c r="E416" s="14">
+        <v>43892</v>
+      </c>
+      <c r="F416" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="G416" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="H416">
+        <v>0</v>
+      </c>
+      <c r="I416" t="s">
+        <v>16</v>
+      </c>
+      <c r="P416" t="s">
+        <v>888</v>
+      </c>
+      <c r="R416" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S416" t="s">
+        <v>408</v>
+      </c>
+      <c r="T416" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>81</v>
+      </c>
+      <c r="B417" t="s">
+        <v>893</v>
+      </c>
+      <c r="D417" t="s">
+        <v>279</v>
+      </c>
+      <c r="E417" s="14">
+        <v>43897</v>
+      </c>
+      <c r="F417" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="G417" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H417">
+        <v>0</v>
+      </c>
+      <c r="I417" t="s">
+        <v>16</v>
+      </c>
+      <c r="P417" t="s">
+        <v>892</v>
+      </c>
+      <c r="R417" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="S417" t="s">
+        <v>408</v>
+      </c>
+      <c r="T417" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>82</v>
+      </c>
+      <c r="B418" t="s">
+        <v>894</v>
+      </c>
+      <c r="D418" t="s">
+        <v>279</v>
+      </c>
+      <c r="E418" s="14">
+        <v>43901</v>
+      </c>
+      <c r="R418" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="S418" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
